--- a/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
+++ b/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
@@ -1,42 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/characterize_larval_transciptome/plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/transcriptome_genome_annotation/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E7943B-BD45-B84E-AC07-587ACFD6E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134128F1-AB1D-6B46-BD34-1EAD03D1BB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="-32840" yWindow="-1620" windowWidth="27640" windowHeight="16440" firstSheet="8" activeTab="10" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="differnetially expressed specie" sheetId="19" r:id="rId1"/>
     <sheet name="blast hits" sheetId="4" r:id="rId2"/>
-    <sheet name="GOterms species normal" sheetId="12" r:id="rId3"/>
-    <sheet name="overlapping" sheetId="3" r:id="rId4"/>
-    <sheet name="Top20 tissue unique" sheetId="17" r:id="rId5"/>
-    <sheet name="go terms for discussion" sheetId="18" r:id="rId6"/>
-    <sheet name="total genes with hits tissues" sheetId="11" r:id="rId7"/>
-    <sheet name="Over-Under tissuetissue" sheetId="14" r:id="rId8"/>
-    <sheet name="% found in tissue" sheetId="16" r:id="rId9"/>
-    <sheet name="unique genes goslims tissue" sheetId="15" r:id="rId10"/>
-    <sheet name="single tissue" sheetId="1" r:id="rId11"/>
-    <sheet name="top 20 terms species" sheetId="6" r:id="rId12"/>
-    <sheet name="top 20 common species" sheetId="13" r:id="rId13"/>
-    <sheet name="top 20 terms tissue gene = 1" sheetId="8" r:id="rId14"/>
-    <sheet name="top 20 tissue unique" sheetId="10" r:id="rId15"/>
-    <sheet name="top 20 terms normal" sheetId="9" r:id="rId16"/>
-    <sheet name="top 8 comb" sheetId="2" r:id="rId17"/>
-    <sheet name="top terms by species not unique" sheetId="5" r:id="rId18"/>
+    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId3"/>
+    <sheet name="Dheilly genes" sheetId="20" r:id="rId4"/>
+    <sheet name="overlapping" sheetId="3" r:id="rId5"/>
+    <sheet name="Top20 tissue unique" sheetId="17" r:id="rId6"/>
+    <sheet name="go terms for discussion" sheetId="18" r:id="rId7"/>
+    <sheet name="total genes with hits tissues" sheetId="11" r:id="rId8"/>
+    <sheet name="Over-Under tissuetissue" sheetId="14" r:id="rId9"/>
+    <sheet name="% found in tissue" sheetId="16" r:id="rId10"/>
+    <sheet name="unique genes goslims tissue" sheetId="15" r:id="rId11"/>
+    <sheet name="single tissue" sheetId="1" r:id="rId12"/>
+    <sheet name="top 20 terms species" sheetId="6" r:id="rId13"/>
+    <sheet name="top 20 common species" sheetId="13" r:id="rId14"/>
+    <sheet name="top 20 terms tissue gene = 1" sheetId="8" r:id="rId15"/>
+    <sheet name="top 20 tissue unique" sheetId="10" r:id="rId16"/>
+    <sheet name="top 20 terms normal" sheetId="9" r:id="rId17"/>
+    <sheet name="top 8 comb" sheetId="2" r:id="rId18"/>
+    <sheet name="top terms by species not unique" sheetId="5" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GOterms species normal'!$M$1:$O$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'top 20 terms species'!$A$1:$A$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'top 20 tissue unique'!$A$1:$A$251</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'top 20 terms species'!$A$1:$A$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'top 20 tissue unique'!$A$1:$A$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="258">
   <si>
     <t>ctenidia</t>
   </si>
@@ -698,9 +699,6 @@
   </si>
   <si>
     <t>heart, juvenile, larvae</t>
-  </si>
-  <si>
-    <t>TOP/BOTTOM  5 Goterms</t>
   </si>
   <si>
     <t>Commonality</t>
@@ -810,12 +808,60 @@
   <si>
     <t>Different (no NAs)</t>
   </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Geoduck genes</t>
+  </si>
+  <si>
+    <t>Dheilly genes</t>
+  </si>
+  <si>
+    <t>Major expression stages</t>
+  </si>
+  <si>
+    <t>Stage 0</t>
+  </si>
+  <si>
+    <t>Stage 3 females</t>
+  </si>
+  <si>
+    <t>Stages 2-3 females</t>
+  </si>
+  <si>
+    <t>Stages 1-3 females</t>
+  </si>
+  <si>
+    <t>Stage 3 males</t>
+  </si>
+  <si>
+    <t>Stages 1-3 males</t>
+  </si>
+  <si>
+    <t>Stage 3 males and females</t>
+  </si>
+  <si>
+    <t>Stage 1-3 males and females</t>
+  </si>
+  <si>
+    <t>Stage 1-2 males and females</t>
+  </si>
+  <si>
+    <t>Stage 2-3 males and females</t>
+  </si>
+  <si>
+    <t>% reproductive in geoduck</t>
+  </si>
+  <si>
+    <t>Differentially Expressed Biological GO processes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -977,13 +1023,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1020,6 +1059,23 @@
       <color rgb="FF000000"/>
       <name val="Times"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1191,24 +1247,30 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1599,154 +1661,154 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="53" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="52" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
+    <row r="15" spans="1:3">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1754,14 +1816,207 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F19C8-1440-0241-A8AC-26666238F35A}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="43">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="43">
+        <v>1</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="42"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D11" xr:uid="{5C3F19C8-1440-0241-A8AC-26666238F35A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
+      <sortCondition ref="B1:B11"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4814F0FB-A46A-374B-986D-BEFF2FCA5D72}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.83203125" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
@@ -1770,7 +2025,7 @@
     <col min="5" max="5" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>196</v>
       </c>
@@ -1788,7 +2043,7 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -1806,7 +2061,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
@@ -1824,7 +2079,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -1842,7 +2097,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -1860,7 +2115,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>142</v>
       </c>
@@ -1878,7 +2133,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
@@ -1896,7 +2151,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>155</v>
       </c>
@@ -1914,7 +2169,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>143</v>
       </c>
@@ -1932,7 +2187,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -1950,7 +2205,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
@@ -1968,7 +2223,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1986,7 +2241,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>140</v>
       </c>
@@ -2004,7 +2259,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>51</v>
@@ -2020,7 +2275,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>153</v>
@@ -2036,7 +2291,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>47</v>
@@ -2052,7 +2307,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>61</v>
@@ -2068,7 +2323,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>128</v>
@@ -2084,7 +2339,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>52</v>
@@ -2100,7 +2355,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>58</v>
@@ -2116,7 +2371,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>44</v>
@@ -2132,7 +2387,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>96</v>
@@ -2146,7 +2401,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>60</v>
@@ -2160,7 +2415,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>53</v>
@@ -2174,7 +2429,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>91</v>
@@ -2188,7 +2443,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>140</v>
@@ -2202,7 +2457,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>59</v>
@@ -2214,7 +2469,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>68</v>
@@ -2226,7 +2481,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -2236,7 +2491,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2246,7 +2501,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2256,7 +2511,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2266,7 +2521,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2276,7 +2531,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2286,7 +2541,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2296,7 +2551,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2306,7 +2561,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2316,7 +2571,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2326,7 +2581,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2336,7 +2591,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2346,7 +2601,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2356,7 +2611,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2366,7 +2621,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2376,7 +2631,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2386,7 +2641,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2396,7 +2651,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2406,7 +2661,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2416,7 +2671,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2426,7 +2681,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2436,7 +2691,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2446,7 +2701,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2456,7 +2711,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2466,7 +2721,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2476,7 +2731,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2486,7 +2741,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2496,7 +2751,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2506,7 +2761,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2516,7 +2771,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2526,7 +2781,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2536,7 +2791,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2546,7 +2801,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2556,7 +2811,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2569,21 +2824,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A9" sqref="A9:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2884,7 @@
         <v>0.5001573811772112</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2649,11 +2905,11 @@
         <v>34947</v>
       </c>
       <c r="G3" s="14">
-        <f t="shared" ref="G3:G6" si="1">C3/F3</f>
+        <f>C3/F3</f>
         <v>0.39150713938249349</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2674,11 +2930,11 @@
         <v>34947</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="1"/>
+        <f>C4/F4</f>
         <v>0.50367699659484366</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2699,11 +2955,11 @@
         <v>34947</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="1"/>
+        <f>C5/F5</f>
         <v>0.67007182304632729</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2724,11 +2980,11 @@
         <v>34947</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="1"/>
+        <f>C6/F6</f>
         <v>0.55652845737831569</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -2744,6 +3000,127 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>17468</v>
+      </c>
+      <c r="C10">
+        <v>17479</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.5001573811772112</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>21265</v>
+      </c>
+      <c r="C11">
+        <v>13682</v>
+      </c>
+      <c r="D11">
+        <v>119</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.39150713938249349</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>17345</v>
+      </c>
+      <c r="C12">
+        <v>17602</v>
+      </c>
+      <c r="D12">
+        <v>371</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.50367699659484366</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>11530</v>
+      </c>
+      <c r="C13">
+        <v>23417</v>
+      </c>
+      <c r="D13">
+        <v>2180</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.67007182304632729</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>15498</v>
+      </c>
+      <c r="C14">
+        <v>19449</v>
+      </c>
+      <c r="D14">
+        <v>868</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.55652845737831569</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="56"/>
+      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2753,6 +3130,11 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{A5ECA048-9637-3347-A642-B69735BCE259}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{3210E477-3250-0A42-AF90-C60B4E8C5ADE}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{9C1B3C63-6FFD-2940-9A9B-9963DE6D8DA3}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{040E48FA-892D-4F4C-9887-58A2BFA8C42D}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{507B9522-B75F-0343-B8BE-556427F6C4D4}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{FDEB9996-C2A9-F549-A7CD-D02A1BBE6DD7}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{716E27A2-1DED-434F-8213-F28BFB0F0AC7}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{8C134E6F-9C9B-4842-992E-B47F9AC1685A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2762,7 +3144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}">
   <dimension ref="A1:I101"/>
   <sheetViews>
@@ -2770,7 +3152,7 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="40.1640625" customWidth="1"/>
@@ -2779,7 +3161,7 @@
     <col min="9" max="9" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -2802,7 +3184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2828,7 +3210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2854,7 +3236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2880,7 +3262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2906,7 +3288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2932,7 +3314,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2958,7 +3340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2984,7 +3366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3010,7 +3392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3036,7 +3418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3062,7 +3444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3088,7 +3470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3114,7 +3496,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3140,7 +3522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3166,7 +3548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3192,7 +3574,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3218,7 +3600,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3244,7 +3626,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3270,7 +3652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3296,7 +3678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3322,7 +3704,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3336,7 +3718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3350,7 +3732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3364,7 +3746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3378,7 +3760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3392,7 +3774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>6</v>
       </c>
@@ -3406,7 +3788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>7</v>
       </c>
@@ -3420,7 +3802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3434,7 +3816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>9</v>
       </c>
@@ -3448,7 +3830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>10</v>
       </c>
@@ -3462,7 +3844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>11</v>
       </c>
@@ -3476,7 +3858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>12</v>
       </c>
@@ -3490,7 +3872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>13</v>
       </c>
@@ -3504,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>14</v>
       </c>
@@ -3518,7 +3900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>15</v>
       </c>
@@ -3532,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>16</v>
       </c>
@@ -3546,7 +3928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>17</v>
       </c>
@@ -3560,7 +3942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>18</v>
       </c>
@@ -3574,7 +3956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>19</v>
       </c>
@@ -3588,7 +3970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>20</v>
       </c>
@@ -3602,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3616,7 +3998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3630,7 +4012,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3644,7 +4026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3658,7 +4040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3672,7 +4054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3686,7 +4068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>7</v>
       </c>
@@ -3700,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>8</v>
       </c>
@@ -3714,7 +4096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>9</v>
       </c>
@@ -3728,7 +4110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3742,7 +4124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>11</v>
       </c>
@@ -3756,7 +4138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>12</v>
       </c>
@@ -3770,7 +4152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>13</v>
       </c>
@@ -3784,7 +4166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>14</v>
       </c>
@@ -3798,7 +4180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>15</v>
       </c>
@@ -3812,7 +4194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>16</v>
       </c>
@@ -3826,7 +4208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>17</v>
       </c>
@@ -3840,7 +4222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>18</v>
       </c>
@@ -3854,7 +4236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>19</v>
       </c>
@@ -3868,7 +4250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>20</v>
       </c>
@@ -3882,7 +4264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3896,7 +4278,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3910,7 +4292,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3924,7 +4306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3938,7 +4320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>5</v>
       </c>
@@ -3952,7 +4334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>6</v>
       </c>
@@ -3966,7 +4348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>7</v>
       </c>
@@ -3980,7 +4362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>8</v>
       </c>
@@ -3994,7 +4376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>9</v>
       </c>
@@ -4008,7 +4390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>10</v>
       </c>
@@ -4022,7 +4404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>11</v>
       </c>
@@ -4036,7 +4418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>12</v>
       </c>
@@ -4050,7 +4432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>13</v>
       </c>
@@ -4064,7 +4446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>14</v>
       </c>
@@ -4078,7 +4460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>15</v>
       </c>
@@ -4092,7 +4474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>16</v>
       </c>
@@ -4106,7 +4488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>17</v>
       </c>
@@ -4120,7 +4502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>18</v>
       </c>
@@ -4134,7 +4516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>19</v>
       </c>
@@ -4148,7 +4530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>20</v>
       </c>
@@ -4162,7 +4544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4176,7 +4558,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4190,7 +4572,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4204,7 +4586,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4218,7 +4600,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>5</v>
       </c>
@@ -4232,7 +4614,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4246,7 +4628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>7</v>
       </c>
@@ -4260,7 +4642,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>8</v>
       </c>
@@ -4274,7 +4656,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>9</v>
       </c>
@@ -4288,7 +4670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>10</v>
       </c>
@@ -4302,7 +4684,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>11</v>
       </c>
@@ -4316,7 +4698,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>12</v>
       </c>
@@ -4330,7 +4712,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4344,7 +4726,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4358,7 +4740,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>15</v>
       </c>
@@ -4372,7 +4754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>16</v>
       </c>
@@ -4386,7 +4768,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>17</v>
       </c>
@@ -4400,7 +4782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4414,7 +4796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>19</v>
       </c>
@@ -4428,7 +4810,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>20</v>
       </c>
@@ -4448,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADD2FAD-DB4C-B24D-9A5A-9637445AB2C6}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -4456,14 +4838,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
         <v>74</v>
       </c>
@@ -4472,7 +4854,7 @@
       </c>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -4481,7 +4863,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -4490,7 +4872,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -4499,7 +4881,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -4508,7 +4890,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -4517,7 +4899,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -4526,7 +4908,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -4535,7 +4917,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -4544,7 +4926,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4553,7 +4935,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4562,7 +4944,7 @@
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -4571,7 +4953,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -4580,7 +4962,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -4589,7 +4971,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -4598,7 +4980,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -4607,7 +4989,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -4616,7 +4998,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -4625,7 +5007,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -4634,7 +5016,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -4643,7 +5025,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4658,7 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F754E3B4-B00D-1F48-9B8B-AB73EC5B3BA7}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -4666,12 +5048,12 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
@@ -4682,7 +5064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +5075,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4704,7 +5086,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +5097,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4726,7 +5108,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4737,7 +5119,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4748,7 +5130,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4759,7 +5141,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4770,7 +5152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +5163,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4792,7 +5174,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4803,7 +5185,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +5196,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4825,7 +5207,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4836,7 +5218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +5229,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4858,7 +5240,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4869,7 +5251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +5262,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4891,7 +5273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4902,7 +5284,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -4913,7 +5295,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4924,7 +5306,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4935,7 +5317,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +5328,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4957,7 +5339,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4968,7 +5350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4979,7 +5361,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -4990,7 +5372,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +5383,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -5012,7 +5394,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -5023,7 +5405,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5034,7 +5416,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5045,7 +5427,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -5056,7 +5438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -5067,7 +5449,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5078,7 +5460,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5089,7 +5471,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5100,7 +5482,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5111,7 +5493,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -5122,7 +5504,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -5133,7 +5515,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -5144,7 +5526,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -5155,7 +5537,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -5166,7 +5548,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -5177,7 +5559,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -5188,7 +5570,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -5199,7 +5581,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -5210,7 +5592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -5221,7 +5603,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -5232,7 +5614,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -5243,7 +5625,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5636,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -5265,7 +5647,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -5276,7 +5658,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -5287,7 +5669,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -5298,7 +5680,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -5309,7 +5691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -5320,7 +5702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -5331,7 +5713,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -5342,7 +5724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -5353,7 +5735,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -5364,7 +5746,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -5375,7 +5757,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -5386,7 +5768,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -5397,7 +5779,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -5408,7 +5790,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -5419,7 +5801,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -5430,7 +5812,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -5441,7 +5823,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5834,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -5463,7 +5845,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -5474,7 +5856,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -5485,7 +5867,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -5496,7 +5878,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -5507,7 +5889,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -5518,7 +5900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -5529,7 +5911,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -5540,7 +5922,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -5551,7 +5933,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -5562,7 +5944,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5955,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5584,7 +5966,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5595,7 +5977,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5606,7 +5988,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5617,7 +5999,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5628,7 +6010,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5639,7 +6021,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5650,7 +6032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5661,7 +6043,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +6054,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -5683,7 +6065,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -5694,7 +6076,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +6087,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +6098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -5727,7 +6109,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -5738,7 +6120,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +6131,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -5760,7 +6142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -5771,7 +6153,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -5791,7 +6173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C976F7-D39C-A443-94B7-625710AF400A}">
   <dimension ref="A1:E251"/>
   <sheetViews>
@@ -5799,13 +6181,13 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>117</v>
       </c>
@@ -5817,7 +6199,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -5828,7 +6210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -5839,7 +6221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -5850,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -5861,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -5872,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -5883,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -5894,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -5905,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -5916,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5927,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5938,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -5949,7 +6331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5960,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -5971,7 +6353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -5982,7 +6364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -5993,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -6004,7 +6386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -6015,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -6026,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -6037,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -6048,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -6059,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -6070,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -6081,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -6092,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -6103,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -6114,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -6125,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -6136,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -6147,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -6158,7 +6540,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -6169,7 +6551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -6180,7 +6562,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -6191,7 +6573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -6202,7 +6584,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -6213,7 +6595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -6224,7 +6606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -6235,7 +6617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -6246,7 +6628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -6257,7 +6639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -6268,7 +6650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -6279,7 +6661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -6290,7 +6672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>121</v>
       </c>
@@ -6301,7 +6683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -6312,7 +6694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -6323,7 +6705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -6334,7 +6716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -6345,7 +6727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -6356,7 +6738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -6367,7 +6749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -6378,7 +6760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -6389,7 +6771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -6400,7 +6782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -6411,7 +6793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -6422,7 +6804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>121</v>
       </c>
@@ -6433,7 +6815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -6444,7 +6826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -6455,7 +6837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -6466,7 +6848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6477,7 +6859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -6488,7 +6870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -6499,7 +6881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -6510,7 +6892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -6521,7 +6903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -6532,7 +6914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -6543,7 +6925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -6554,7 +6936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -6565,7 +6947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -6576,7 +6958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -6587,7 +6969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -6598,7 +6980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -6609,7 +6991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -6620,7 +7002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -6631,7 +7013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -6642,7 +7024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -6653,7 +7035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -6664,7 +7046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -6675,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -6686,7 +7068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -6697,7 +7079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -6708,7 +7090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>121</v>
       </c>
@@ -6719,7 +7101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>121</v>
       </c>
@@ -6730,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>121</v>
       </c>
@@ -6741,7 +7123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -6752,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>121</v>
       </c>
@@ -6763,7 +7145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -6774,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>121</v>
       </c>
@@ -6785,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>121</v>
       </c>
@@ -6796,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -6807,7 +7189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>122</v>
       </c>
@@ -6818,7 +7200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -6829,7 +7211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>122</v>
       </c>
@@ -6840,7 +7222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -6851,7 +7233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -6862,7 +7244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -6873,7 +7255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -6884,7 +7266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -6895,7 +7277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -6906,7 +7288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -6917,7 +7299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -6928,7 +7310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -6939,7 +7321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -6950,7 +7332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -6961,7 +7343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -6972,7 +7354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -6983,7 +7365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6994,7 +7376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -7005,7 +7387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -7016,7 +7398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -7027,7 +7409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -7038,7 +7420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>122</v>
       </c>
@@ -7049,7 +7431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -7060,7 +7442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -7071,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -7082,7 +7464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -7093,7 +7475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -7104,7 +7486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -7115,7 +7497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -7126,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -7137,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -7148,7 +7530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7159,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -7170,7 +7552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -7181,7 +7563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -7192,7 +7574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>122</v>
       </c>
@@ -7203,7 +7585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -7214,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -7225,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>122</v>
       </c>
@@ -7236,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>122</v>
       </c>
@@ -7247,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>122</v>
       </c>
@@ -7258,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -7269,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -7280,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>122</v>
       </c>
@@ -7291,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>122</v>
       </c>
@@ -7302,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>123</v>
       </c>
@@ -7313,7 +7695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>123</v>
       </c>
@@ -7324,7 +7706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>123</v>
       </c>
@@ -7335,7 +7717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>123</v>
       </c>
@@ -7346,7 +7728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>123</v>
       </c>
@@ -7357,7 +7739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>123</v>
       </c>
@@ -7368,7 +7750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -7379,7 +7761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>123</v>
       </c>
@@ -7390,7 +7772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>123</v>
       </c>
@@ -7401,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>123</v>
       </c>
@@ -7412,7 +7794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>123</v>
       </c>
@@ -7423,7 +7805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>123</v>
       </c>
@@ -7434,7 +7816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>123</v>
       </c>
@@ -7445,7 +7827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -7456,7 +7838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -7467,7 +7849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -7478,7 +7860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>123</v>
       </c>
@@ -7489,7 +7871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>123</v>
       </c>
@@ -7500,7 +7882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>123</v>
       </c>
@@ -7511,7 +7893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>123</v>
       </c>
@@ -7522,7 +7904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>123</v>
       </c>
@@ -7533,7 +7915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>123</v>
       </c>
@@ -7544,7 +7926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>123</v>
       </c>
@@ -7555,7 +7937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>123</v>
       </c>
@@ -7566,7 +7948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>123</v>
       </c>
@@ -7577,7 +7959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>123</v>
       </c>
@@ -7588,7 +7970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>123</v>
       </c>
@@ -7599,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>123</v>
       </c>
@@ -7610,7 +7992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>123</v>
       </c>
@@ -7621,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -7632,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>123</v>
       </c>
@@ -7643,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>123</v>
       </c>
@@ -7654,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>123</v>
       </c>
@@ -7665,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>123</v>
       </c>
@@ -7676,7 +8058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -7687,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>123</v>
       </c>
@@ -7698,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>123</v>
       </c>
@@ -7709,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>123</v>
       </c>
@@ -7720,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>123</v>
       </c>
@@ -7731,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>123</v>
       </c>
@@ -7742,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>123</v>
       </c>
@@ -7753,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>123</v>
       </c>
@@ -7764,7 +8146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>123</v>
       </c>
@@ -7775,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>124</v>
       </c>
@@ -7786,7 +8168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>124</v>
       </c>
@@ -7797,7 +8179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>124</v>
       </c>
@@ -7808,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>124</v>
       </c>
@@ -7819,7 +8201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>124</v>
       </c>
@@ -7830,7 +8212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>124</v>
       </c>
@@ -7841,7 +8223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>124</v>
       </c>
@@ -7852,7 +8234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>124</v>
       </c>
@@ -7863,7 +8245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>124</v>
       </c>
@@ -7874,7 +8256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>124</v>
       </c>
@@ -7885,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>124</v>
       </c>
@@ -7896,7 +8278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>124</v>
       </c>
@@ -7907,7 +8289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>124</v>
       </c>
@@ -7918,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>124</v>
       </c>
@@ -7929,7 +8311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>124</v>
       </c>
@@ -7940,7 +8322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>124</v>
       </c>
@@ -7951,7 +8333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>124</v>
       </c>
@@ -7962,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>124</v>
       </c>
@@ -7973,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>124</v>
       </c>
@@ -7984,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>124</v>
       </c>
@@ -7995,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>124</v>
       </c>
@@ -8006,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>124</v>
       </c>
@@ -8017,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>124</v>
       </c>
@@ -8028,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>124</v>
       </c>
@@ -8039,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -8050,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>124</v>
       </c>
@@ -8061,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>124</v>
       </c>
@@ -8072,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>124</v>
       </c>
@@ -8083,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>124</v>
       </c>
@@ -8094,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>124</v>
       </c>
@@ -8105,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>124</v>
       </c>
@@ -8116,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>124</v>
       </c>
@@ -8127,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>124</v>
       </c>
@@ -8138,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>124</v>
       </c>
@@ -8149,7 +8531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>124</v>
       </c>
@@ -8160,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>125</v>
       </c>
@@ -8171,7 +8553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>125</v>
       </c>
@@ -8182,7 +8564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>125</v>
       </c>
@@ -8193,7 +8575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>125</v>
       </c>
@@ -8204,7 +8586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>125</v>
       </c>
@@ -8215,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>125</v>
       </c>
@@ -8226,7 +8608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>125</v>
       </c>
@@ -8237,7 +8619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>125</v>
       </c>
@@ -8248,7 +8630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>125</v>
       </c>
@@ -8259,7 +8641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>125</v>
       </c>
@@ -8270,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>125</v>
       </c>
@@ -8281,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>125</v>
       </c>
@@ -8292,7 +8674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>125</v>
       </c>
@@ -8303,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>125</v>
       </c>
@@ -8314,7 +8696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>125</v>
       </c>
@@ -8325,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>125</v>
       </c>
@@ -8336,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>125</v>
       </c>
@@ -8347,7 +8729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>125</v>
       </c>
@@ -8358,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>125</v>
       </c>
@@ -8369,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>125</v>
       </c>
@@ -8380,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>126</v>
       </c>
@@ -8391,7 +8773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>126</v>
       </c>
@@ -8402,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>126</v>
       </c>
@@ -8413,7 +8795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>126</v>
       </c>
@@ -8424,7 +8806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>126</v>
       </c>
@@ -8435,7 +8817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>126</v>
       </c>
@@ -8446,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>126</v>
       </c>
@@ -8457,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -8468,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>126</v>
       </c>
@@ -8479,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>126</v>
       </c>
@@ -8490,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>126</v>
       </c>
@@ -8501,7 +8883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>126</v>
       </c>
@@ -8512,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>126</v>
       </c>
@@ -8523,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>127</v>
       </c>
@@ -8534,7 +8916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>127</v>
       </c>
@@ -8545,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>127</v>
       </c>
@@ -8556,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>127</v>
       </c>
@@ -8574,7 +8956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20026194-68BA-8C44-8F05-04AF419EA4FD}">
   <dimension ref="A1:I101"/>
   <sheetViews>
@@ -8582,7 +8964,7 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
@@ -8591,7 +8973,7 @@
     <col min="8" max="8" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -8617,7 +8999,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -8646,7 +9028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -8675,7 +9057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -8704,7 +9086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -8733,7 +9115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -8762,7 +9144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -8791,7 +9173,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -8820,7 +9202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -8849,7 +9231,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -8878,7 +9260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -8907,7 +9289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -8936,7 +9318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -8965,7 +9347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8994,7 +9376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -9023,7 +9405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -9052,7 +9434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -9081,7 +9463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -9110,7 +9492,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -9139,7 +9521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -9168,7 +9550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -9197,7 +9579,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -9208,7 +9590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -9219,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -9230,7 +9612,7 @@
         <v>0.95652173913043503</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -9241,7 +9623,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -9252,7 +9634,7 @@
         <v>0.94285714285714295</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -9263,7 +9645,7 @@
         <v>0.92134831460674205</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -9274,7 +9656,7 @@
         <v>0.84892086330935301</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -9285,7 +9667,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -9296,7 +9678,7 @@
         <v>0.82722513089005201</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -9307,7 +9689,7 @@
         <v>0.81132075471698095</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -9318,7 +9700,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -9329,7 +9711,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -9340,7 +9722,7 @@
         <v>0.79521829521829501</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -9351,7 +9733,7 @@
         <v>0.78571428571428603</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -9362,7 +9744,7 @@
         <v>0.73584905660377398</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -9373,7 +9755,7 @@
         <v>0.73529411764705899</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -9384,7 +9766,7 @@
         <v>0.72330097087378598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -9395,7 +9777,7 @@
         <v>0.68888888888888899</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -9406,7 +9788,7 @@
         <v>0.61538461538461497</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -9417,7 +9799,7 @@
         <v>0.52941176470588203</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -9428,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -9439,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -9450,7 +9832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -9461,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -9472,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -9483,7 +9865,7 @@
         <v>0.96067415730337102</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -9494,7 +9876,7 @@
         <v>0.94964028776978404</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -9505,7 +9887,7 @@
         <v>0.90052356020942403</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -9516,7 +9898,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -9527,7 +9909,7 @@
         <v>0.88095238095238104</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -9538,7 +9920,7 @@
         <v>0.87110187110187098</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -9549,7 +9931,7 @@
         <v>0.86792452830188704</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -9560,7 +9942,7 @@
         <v>0.84466019417475702</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -9571,7 +9953,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -9582,7 +9964,7 @@
         <v>0.82704402515723296</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -9593,7 +9975,7 @@
         <v>0.80882352941176505</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -9604,7 +9986,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -9615,7 +9997,7 @@
         <v>0.76470588235294101</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -9626,7 +10008,7 @@
         <v>0.71111111111111103</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -9637,7 +10019,7 @@
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -9648,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -9659,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -9670,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -9681,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -9692,7 +10074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -9703,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -9714,7 +10096,7 @@
         <v>0.98920863309352502</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -9725,7 +10107,7 @@
         <v>0.98314606741572996</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -9736,7 +10118,7 @@
         <v>0.98167539267015702</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -9747,7 +10129,7 @@
         <v>0.97505197505197505</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -9758,7 +10140,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9769,7 +10151,7 @@
         <v>0.97278911564625803</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -9780,7 +10162,7 @@
         <v>0.970873786407767</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -9791,7 +10173,7 @@
         <v>0.97058823529411797</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -9802,7 +10184,7 @@
         <v>0.97058823529411797</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -9813,7 +10195,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -9824,7 +10206,7 @@
         <v>0.96226415094339601</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -9835,7 +10217,7 @@
         <v>0.96153846153846201</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -9846,7 +10228,7 @@
         <v>0.92452830188679203</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -9857,7 +10239,7 @@
         <v>0.91111111111111098</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -9868,7 +10250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -9879,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -9890,7 +10272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -9901,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -9912,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -9923,7 +10305,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>62</v>
       </c>
@@ -9934,7 +10316,7 @@
         <v>0.97191011235955105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -9945,7 +10327,7 @@
         <v>0.96402877697841705</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -9956,7 +10338,7 @@
         <v>0.953125</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -9967,7 +10349,7 @@
         <v>0.942408376963351</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -9978,7 +10360,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -9989,7 +10371,7 @@
         <v>0.92452830188679203</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -10000,7 +10382,7 @@
         <v>0.92307692307692302</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -10011,7 +10393,7 @@
         <v>0.921768707482993</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -10022,7 +10404,7 @@
         <v>0.91995841995841998</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -10033,7 +10415,7 @@
         <v>0.91176470588235303</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>50</v>
       </c>
@@ -10044,7 +10426,7 @@
         <v>0.89937106918238996</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -10055,7 +10437,7 @@
         <v>0.89805825242718496</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -10066,7 +10448,7 @@
         <v>0.88235294117647101</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -10083,7 +10465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458E1E55-6598-3A4D-81BB-3A496303A529}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -10091,14 +10473,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -10124,7 +10506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10150,7 +10532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="F4">
         <v>0</v>
       </c>
@@ -10161,7 +10543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="E5" t="s">
         <v>11</v>
       </c>
@@ -10175,7 +10557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10198,7 +10580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="D7" t="s">
         <v>11</v>
       </c>
@@ -10215,7 +10597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10235,7 +10617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -10255,7 +10637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -10274,15 +10656,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22A8816-EA9A-1545-B9C3-92E9C4A43359}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
@@ -10292,7 +10674,7 @@
     <col min="13" max="13" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>63</v>
       </c>
@@ -10321,7 +10703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -10359,7 +10741,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -10397,7 +10779,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -10435,7 +10817,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -10473,7 +10855,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -10511,7 +10893,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -10549,7 +10931,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -10587,7 +10969,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -10625,7 +11007,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -10663,7 +11045,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -10701,7 +11083,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -10739,7 +11121,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -10777,7 +11159,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -10815,7 +11197,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -10853,7 +11235,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -10891,7 +11273,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -10929,7 +11311,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -10967,7 +11349,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -11005,7 +11387,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11043,7 +11425,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -11081,7 +11463,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="F22" s="4">
         <v>1</v>
       </c>
@@ -11107,7 +11489,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="F23" s="4">
         <v>2</v>
       </c>
@@ -11133,7 +11515,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="F24" s="4">
         <v>3</v>
       </c>
@@ -11159,7 +11541,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="F25" s="4">
         <v>4</v>
       </c>
@@ -11185,7 +11567,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="F26" s="4">
         <v>5</v>
       </c>
@@ -11211,7 +11593,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="F27" s="4">
         <v>6</v>
       </c>
@@ -11237,7 +11619,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="F28" s="4">
         <v>7</v>
       </c>
@@ -11263,7 +11645,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="F29" s="4">
         <v>8</v>
       </c>
@@ -11289,7 +11671,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="F30" s="4">
         <v>9</v>
       </c>
@@ -11315,7 +11697,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="F31" s="4">
         <v>10</v>
       </c>
@@ -11341,7 +11723,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="F32" s="4">
         <v>11</v>
       </c>
@@ -11367,7 +11749,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:14">
       <c r="F33" s="4">
         <v>12</v>
       </c>
@@ -11393,7 +11775,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:14">
       <c r="F34" s="4">
         <v>13</v>
       </c>
@@ -11419,7 +11801,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:14">
       <c r="F35" s="4">
         <v>14</v>
       </c>
@@ -11445,7 +11827,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:14">
       <c r="F36" s="4">
         <v>15</v>
       </c>
@@ -11471,7 +11853,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:14">
       <c r="F37" s="4">
         <v>16</v>
       </c>
@@ -11497,7 +11879,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:14">
       <c r="F38" s="4">
         <v>17</v>
       </c>
@@ -11523,7 +11905,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:14">
       <c r="F39" s="4">
         <v>18</v>
       </c>
@@ -11549,7 +11931,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:14">
       <c r="F40" s="4">
         <v>19</v>
       </c>
@@ -11575,7 +11957,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:14">
       <c r="F41" s="4">
         <v>20</v>
       </c>
@@ -11610,11 +11992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -11623,7 +12005,7 @@
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -11640,292 +12022,286 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <v>5099</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>2198</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>980</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="44">
+        <v>657</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1235</v>
+      </c>
+      <c r="E3" s="44">
+        <v>210</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="C4" s="45">
+        <v>6521</v>
+      </c>
+      <c r="D4" s="45">
+        <v>7027</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="45">
-        <v>657</v>
-      </c>
-      <c r="D3" s="45">
-        <v>1235</v>
-      </c>
-      <c r="E3" s="45">
-        <v>210</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="46">
-        <v>6521</v>
-      </c>
-      <c r="D4" s="46">
-        <v>7027</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="C5" s="45">
+        <v>761</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1390</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H5" s="48" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="46" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="46">
-        <v>761</v>
-      </c>
-      <c r="D5" s="46">
-        <v>1390</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="53" t="s">
+      <c r="B6" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="47">
+        <v>34947</v>
+      </c>
+      <c r="D6" s="47">
+        <v>17611</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1029</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="48">
-        <v>34947</v>
-      </c>
-      <c r="D6" s="48">
-        <v>17611</v>
-      </c>
-      <c r="E6" s="47">
-        <v>1029</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="49"/>
-      <c r="H7" s="53"/>
-      <c r="J7" s="53" t="s">
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="H7" s="48"/>
+      <c r="J7" s="48" t="s">
         <v>39</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="D8" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>236</v>
+      <c r="E8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>235</v>
       </c>
       <c r="I8">
         <v>761</v>
       </c>
-      <c r="J8" s="53" t="s">
-        <v>237</v>
+      <c r="J8" s="48" t="s">
+        <v>236</v>
       </c>
       <c r="K8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="49">
+    <row r="9" spans="1:11">
+      <c r="A9" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9">
         <v>8736</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9">
         <v>271</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>238</v>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>237</v>
       </c>
       <c r="I9">
         <v>6521</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>237</v>
+      <c r="J9" s="48" t="s">
+        <v>236</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="51">
+    <row r="10" spans="1:11">
+      <c r="A10" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10">
         <v>874</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>239</v>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>238</v>
       </c>
       <c r="I10">
         <v>657</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="J10" s="48" t="s">
         <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="51">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11">
         <v>2263</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11">
         <v>994</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>240</v>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>239</v>
       </c>
       <c r="I11">
         <v>5099</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="48" t="s">
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>3268</v>
+      </c>
+      <c r="D12">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="51">
-        <v>3268</v>
-      </c>
-      <c r="D12" s="51">
-        <v>61</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13">
+        <v>1629</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1629</v>
-      </c>
-      <c r="D13" s="51">
-        <v>20</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>167</v>
@@ -11934,21 +12310,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
-        <v>224</v>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48" t="s">
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="51">
+        <v>229</v>
+      </c>
+      <c r="C16">
         <v>5099</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16">
         <v>210</v>
       </c>
-      <c r="E16" s="51" t="s">
-        <v>222</v>
+      <c r="E16" t="s">
+        <v>221</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -11960,12 +12336,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>223</v>
       </c>
       <c r="C17">
         <v>6521</v>
@@ -11974,7 +12350,7 @@
         <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" t="s">
         <v>73</v>
@@ -11986,12 +12362,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>226</v>
+    <row r="18" spans="1:10">
+      <c r="A18" s="48" t="s">
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18">
         <v>657</v>
@@ -11999,8 +12375,8 @@
       <c r="D18">
         <v>980</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>223</v>
+      <c r="E18" t="s">
+        <v>222</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -12012,12 +12388,12 @@
         <v>980</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>225</v>
       </c>
       <c r="C19">
         <v>761</v>
@@ -12025,8 +12401,8 @@
       <c r="D19" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>223</v>
+      <c r="E19" t="s">
+        <v>222</v>
       </c>
       <c r="H19" t="s">
         <v>74</v>
@@ -12038,12 +12414,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
         <v>230</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
       </c>
       <c r="C20" s="8">
         <v>34947</v>
@@ -12051,8 +12427,8 @@
       <c r="D20">
         <v>1029</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>222</v>
+      <c r="E20" t="s">
+        <v>221</v>
       </c>
       <c r="H20" t="s">
         <v>40</v>
@@ -12064,21 +12440,21 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>184</v>
@@ -12090,12 +12466,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>223</v>
       </c>
       <c r="C23">
         <v>980</v>
@@ -12116,12 +12492,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>230</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>225</v>
       </c>
       <c r="C24">
         <v>210</v>
@@ -12142,12 +12518,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>224</v>
+    <row r="25" spans="1:10">
+      <c r="A25" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>223</v>
       </c>
       <c r="C25">
         <v>202</v>
@@ -12168,7 +12544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="H26" t="s">
         <v>174</v>
       </c>
@@ -12179,7 +12555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="H28" t="s">
         <v>185</v>
       </c>
@@ -12194,11 +12570,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FB9069-9636-FA4A-B89A-564862881889}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -12214,7 +12590,7 @@
     <col min="13" max="13" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>166</v>
       </c>
@@ -12257,7 +12633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -12301,7 +12677,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -12345,7 +12721,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -12389,7 +12765,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -12433,7 +12809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -12477,7 +12853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="E7" s="5" t="s">
         <v>163</v>
       </c>
@@ -12503,7 +12879,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="6" t="s">
         <v>184</v>
       </c>
@@ -12547,7 +12923,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -12591,7 +12967,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -12635,7 +13011,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -12679,7 +13055,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -12723,7 +13099,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -12746,7 +13122,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="I14" t="s">
         <v>162</v>
       </c>
@@ -12760,7 +13136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="I15" t="s">
         <v>162</v>
       </c>
@@ -12774,7 +13150,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="6" t="s">
         <v>176</v>
       </c>
@@ -12800,7 +13176,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -12820,7 +13196,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -12840,7 +13216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -12857,7 +13233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -12868,7 +13244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
@@ -12879,32 +13255,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -12921,14 +13297,223 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BDE0C-572B-464B-9775-865EEF875FC1}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59">
+        <v>7</v>
+      </c>
+      <c r="C2" s="59">
+        <v>511</v>
+      </c>
+      <c r="D2" s="60">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59">
+        <v>14</v>
+      </c>
+      <c r="C3" s="59">
+        <v>222</v>
+      </c>
+      <c r="D3" s="60">
+        <v>6.3063063063063057E-2</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59">
+        <v>13</v>
+      </c>
+      <c r="C4" s="59">
+        <v>312</v>
+      </c>
+      <c r="D4" s="60">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59">
+        <v>5</v>
+      </c>
+      <c r="C5" s="59">
+        <v>197</v>
+      </c>
+      <c r="D5" s="60">
+        <v>2.5380710659898477E-2</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59">
+        <v>8</v>
+      </c>
+      <c r="C6" s="59">
+        <v>226</v>
+      </c>
+      <c r="D6" s="60">
+        <v>3.5398230088495575E-2</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59">
+        <v>4</v>
+      </c>
+      <c r="C7" s="59">
+        <v>146</v>
+      </c>
+      <c r="D7" s="60">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="58">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59">
+        <v>13</v>
+      </c>
+      <c r="C8" s="59">
+        <v>200</v>
+      </c>
+      <c r="D8" s="60">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59">
+        <v>1</v>
+      </c>
+      <c r="C9" s="59">
+        <v>295</v>
+      </c>
+      <c r="D9" s="60">
+        <v>3.3898305084745762E-3</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59">
+        <v>7</v>
+      </c>
+      <c r="C10" s="59">
+        <v>332</v>
+      </c>
+      <c r="D10" s="60">
+        <v>2.1084337349397589E-2</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59">
+        <v>2</v>
+      </c>
+      <c r="C11" s="59">
+        <v>41</v>
+      </c>
+      <c r="D11" s="60">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -12937,7 +13522,7 @@
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -12966,7 +13551,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>157</v>
@@ -12978,7 +13563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -13005,7 +13590,7 @@
         <v>3.292806484295846E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -13035,7 +13620,7 @@
         <v>6.9172932330827067E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -13065,7 +13650,7 @@
         <v>8.990825688073395E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -13095,7 +13680,7 @@
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -13125,7 +13710,7 @@
         <v>0.14516129032258066</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -13155,7 +13740,7 @@
         <v>0.25316455696202533</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13185,7 +13770,7 @@
         <v>0.21666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -13215,7 +13800,7 @@
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13245,7 +13830,7 @@
         <v>0.2558139534883721</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -13275,7 +13860,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -13295,7 +13880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -13318,7 +13903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -13338,7 +13923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -13358,7 +13943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="E17" t="s">
         <v>11</v>
       </c>
@@ -13378,7 +13963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -13394,15 +13979,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E42923-874F-0942-A327-3143864B57A6}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37.1640625" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
@@ -13412,7 +13997,7 @@
     <col min="9" max="9" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -13444,7 +14029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -13476,7 +14061,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -13508,7 +14093,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
@@ -13540,7 +14125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
@@ -13572,7 +14157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -13604,7 +14189,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -13636,7 +14221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>129</v>
       </c>
@@ -13668,7 +14253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
@@ -13700,7 +14285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -13732,7 +14317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -13764,7 +14349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
@@ -13796,7 +14381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -13828,7 +14413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -13860,7 +14445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>140</v>
       </c>
@@ -13892,7 +14477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="36" t="s">
         <v>136</v>
       </c>
@@ -13924,7 +14509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
@@ -13956,7 +14541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="36" t="s">
         <v>95</v>
       </c>
@@ -13988,7 +14573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>144</v>
       </c>
@@ -14020,7 +14605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>58</v>
       </c>
@@ -14052,7 +14637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="36" t="s">
         <v>148</v>
       </c>
@@ -14084,13 +14669,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="D22">
         <f>SUM(D2:D21)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -14101,7 +14686,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -14122,7 +14707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="36" t="s">
         <v>136</v>
       </c>
@@ -14139,7 +14724,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="36" t="s">
         <v>95</v>
       </c>
@@ -14153,7 +14738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="36" t="s">
         <v>148</v>
       </c>
@@ -14161,12 +14746,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="C28" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="C29" s="36" t="s">
         <v>71</v>
       </c>
@@ -14195,7 +14780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EDC96-6BDF-C24A-870F-153B20147612}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -14203,7 +14788,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="39.83203125" customWidth="1"/>
@@ -14212,7 +14797,7 @@
     <col min="5" max="5" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -14229,7 +14814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="36" t="s">
         <v>136</v>
       </c>
@@ -14246,7 +14831,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="36" t="s">
         <v>95</v>
       </c>
@@ -14260,7 +14845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="36" t="s">
         <v>148</v>
       </c>
@@ -14268,12 +14853,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="B5" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="36" t="s">
         <v>71</v>
       </c>
@@ -14283,15 +14868,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28A7F7E-F303-CD49-8880-EB8DEBC98EE9}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
@@ -14302,12 +14887,12 @@
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>159</v>
@@ -14331,7 +14916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -14366,7 +14951,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14399,7 +14984,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14432,7 +15017,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -14465,7 +15050,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -14498,7 +15083,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -14533,7 +15118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="F8" s="3"/>
       <c r="G8" s="5">
         <v>2</v>
@@ -14554,7 +15139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="G9" s="5">
         <v>3</v>
       </c>
@@ -14574,7 +15159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="G10" s="5">
         <v>4</v>
       </c>
@@ -14594,7 +15179,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="G11" s="5">
         <v>5</v>
@@ -14615,16 +15200,16 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4"/>
     </row>
   </sheetData>
@@ -14633,7 +15218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1695D830-8BDB-7B49-9C80-06AE5D8A84B1}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -14641,7 +15226,7 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
@@ -14653,7 +15238,7 @@
     <col min="11" max="11" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -14682,7 +15267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14714,7 +15299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>134</v>
       </c>
@@ -14741,7 +15326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>133</v>
       </c>
@@ -14768,7 +15353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>95</v>
       </c>
@@ -14795,7 +15380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>136</v>
       </c>
@@ -14822,7 +15407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -14851,7 +15436,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>96</v>
       </c>
@@ -14878,7 +15463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -14907,7 +15492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -14933,7 +15518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -14959,7 +15544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>88</v>
       </c>
@@ -14968,7 +15553,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>189</v>
       </c>
@@ -14977,7 +15562,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="B14" t="s">
         <v>142</v>
       </c>
@@ -14999,7 +15584,7 @@
       </c>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>190</v>
       </c>
@@ -15020,7 +15605,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>145</v>
       </c>
@@ -15041,7 +15626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="B17" t="s">
         <v>144</v>
       </c>
@@ -15062,7 +15647,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="B18" t="s">
         <v>191</v>
       </c>
@@ -15083,7 +15668,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -15104,7 +15689,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>148</v>
       </c>
@@ -15125,7 +15710,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="B21" t="s">
         <v>192</v>
       </c>
@@ -15146,7 +15731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="B22" t="s">
         <v>138</v>
       </c>
@@ -15167,7 +15752,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="B23" t="s">
         <v>134</v>
       </c>
@@ -15188,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="B24" t="s">
         <v>133</v>
       </c>
@@ -15209,7 +15794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="B25" t="s">
         <v>95</v>
       </c>
@@ -15218,7 +15803,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="B26" t="s">
         <v>59</v>
       </c>
@@ -15227,7 +15812,7 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="B27" t="s">
         <v>136</v>
       </c>
@@ -15236,7 +15821,7 @@
       </c>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -15248,7 +15833,7 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="B29" t="s">
         <v>94</v>
       </c>
@@ -15257,7 +15842,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="B30" t="s">
         <v>138</v>
       </c>
@@ -15266,7 +15851,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>134</v>
       </c>
@@ -15275,7 +15860,7 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>133</v>
       </c>
@@ -15284,7 +15869,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -15296,7 +15881,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
         <v>133</v>
       </c>
@@ -15305,7 +15890,7 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="B35" t="s">
         <v>193</v>
       </c>
@@ -15314,49 +15899,49 @@
       </c>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="G41" s="30"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="G43" s="30"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="G45" s="30"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="G46" s="30"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:7">
       <c r="G49" s="30"/>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:7">
       <c r="G50" s="30"/>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:7">
       <c r="G51" s="30"/>
     </row>
   </sheetData>
@@ -15366,197 +15951,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F19C8-1440-0241-A8AC-26666238F35A}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="43">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="43">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="43">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="43">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="42"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D11" xr:uid="{5C3F19C8-1440-0241-A8AC-26666238F35A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-      <sortCondition descending="1" ref="C1:C11"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
+++ b/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/transcriptome_genome_annotation/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134128F1-AB1D-6B46-BD34-1EAD03D1BB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8119AA5A-FA41-8D42-9BB3-306619C76B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32840" yWindow="-1620" windowWidth="27640" windowHeight="16440" firstSheet="8" activeTab="10" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="1820" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="differnetially expressed specie" sheetId="19" r:id="rId1"/>
-    <sheet name="blast hits" sheetId="4" r:id="rId2"/>
-    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId3"/>
-    <sheet name="Dheilly genes" sheetId="20" r:id="rId4"/>
-    <sheet name="overlapping" sheetId="3" r:id="rId5"/>
-    <sheet name="Top20 tissue unique" sheetId="17" r:id="rId6"/>
-    <sheet name="go terms for discussion" sheetId="18" r:id="rId7"/>
-    <sheet name="total genes with hits tissues" sheetId="11" r:id="rId8"/>
-    <sheet name="Over-Under tissuetissue" sheetId="14" r:id="rId9"/>
-    <sheet name="% found in tissue" sheetId="16" r:id="rId10"/>
-    <sheet name="unique genes goslims tissue" sheetId="15" r:id="rId11"/>
-    <sheet name="single tissue" sheetId="1" r:id="rId12"/>
+    <sheet name="blast hits" sheetId="4" r:id="rId1"/>
+    <sheet name="single tissue" sheetId="1" r:id="rId2"/>
+    <sheet name="Dheilly genes" sheetId="20" r:id="rId3"/>
+    <sheet name="differnetially expressed specie" sheetId="19" r:id="rId4"/>
+    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId5"/>
+    <sheet name="overlapping" sheetId="3" r:id="rId6"/>
+    <sheet name="Top20 tissue unique" sheetId="17" r:id="rId7"/>
+    <sheet name="go terms for discussion" sheetId="18" r:id="rId8"/>
+    <sheet name="total genes with hits tissues" sheetId="11" r:id="rId9"/>
+    <sheet name="Over-Under tissuetissue" sheetId="14" r:id="rId10"/>
+    <sheet name="% found in tissue" sheetId="16" r:id="rId11"/>
+    <sheet name="unique genes goslims tissue" sheetId="15" r:id="rId12"/>
     <sheet name="top 20 terms species" sheetId="6" r:id="rId13"/>
     <sheet name="top 20 common species" sheetId="13" r:id="rId14"/>
     <sheet name="top 20 terms tissue gene = 1" sheetId="8" r:id="rId15"/>
@@ -34,8 +34,8 @@
     <sheet name="top terms by species not unique" sheetId="5" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'top 20 terms species'!$A$1:$A$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'top 20 tissue unique'!$A$1:$A$251</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="259">
   <si>
     <t>ctenidia</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>Differentially Expressed Biological GO processes</t>
+  </si>
+  <si>
+    <t>% present</t>
   </si>
 </sst>
 </file>
@@ -1657,165 +1660,1319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD928342-7831-7641-B92C-498582038E8A}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="53" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="44">
+        <v>5099</v>
+      </c>
+      <c r="D2" s="44">
+        <v>2198</v>
+      </c>
+      <c r="E2" s="44">
+        <v>980</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="44">
+        <v>657</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1235</v>
+      </c>
+      <c r="E3" s="44">
+        <v>210</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="45">
+        <v>6521</v>
+      </c>
+      <c r="D4" s="45">
+        <v>7027</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="45">
+        <v>761</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1390</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="47">
+        <v>34947</v>
+      </c>
+      <c r="D6" s="47">
+        <v>17611</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1029</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="H7" s="48"/>
+      <c r="J7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8">
+        <v>761</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="53" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9">
+        <v>8736</v>
+      </c>
+      <c r="D9">
+        <v>271</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9">
+        <v>6521</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="52" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10">
+        <v>874</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10">
+        <v>657</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11">
+        <v>2263</v>
+      </c>
+      <c r="D11">
+        <v>994</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11">
+        <v>5099</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>3268</v>
+      </c>
+      <c r="D12">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13">
+        <v>1629</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16">
+        <v>5099</v>
+      </c>
+      <c r="D16">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>1235</v>
+      </c>
+      <c r="J16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17">
+        <v>6521</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17">
+        <v>1390</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18">
+        <v>657</v>
+      </c>
+      <c r="D18">
+        <v>980</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>2198</v>
+      </c>
+      <c r="J18">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19">
+        <v>761</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>7027</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="8">
+        <v>34947</v>
+      </c>
+      <c r="D20">
+        <v>1029</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>17611</v>
+      </c>
+      <c r="J20">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23">
+        <v>980</v>
+      </c>
+      <c r="D23">
+        <v>778</v>
+      </c>
+      <c r="E23">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23">
+        <v>778</v>
+      </c>
+      <c r="J23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24">
+        <v>210</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25">
+        <v>202</v>
+      </c>
+      <c r="D25">
+        <v>202</v>
+      </c>
+      <c r="E25">
         <v>54</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25">
+        <v>202</v>
+      </c>
+      <c r="J25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26">
+        <v>41</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1695D830-8BDB-7B49-9C80-06AE5D8A84B1}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="G14" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J16">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="30"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="30"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="G36" s="30"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="G37" s="30"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="G38" s="30"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="G41" s="30"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="G43" s="30"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48" s="30"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="30"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="30"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G43:G51 G15:G41">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F19C8-1440-0241-A8AC-26666238F35A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2008,11 +3165,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4814F0FB-A46A-374B-986D-BEFF2FCA5D72}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2821,326 +3978,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>17468</v>
-      </c>
-      <c r="C2" s="1">
-        <v>17479</v>
-      </c>
-      <c r="D2">
-        <v>340</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="15">
-        <f>SUM(B2:C2)</f>
-        <v>34947</v>
-      </c>
-      <c r="G2" s="14">
-        <f>C2/F2</f>
-        <v>0.5001573811772112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>21265</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13682</v>
-      </c>
-      <c r="D3">
-        <v>119</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="15">
-        <f t="shared" ref="F3:F6" si="0">SUM(B3:C3)</f>
-        <v>34947</v>
-      </c>
-      <c r="G3" s="14">
-        <f>C3/F3</f>
-        <v>0.39150713938249349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17345</v>
-      </c>
-      <c r="C4" s="1">
-        <v>17602</v>
-      </c>
-      <c r="D4">
-        <v>371</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="15">
-        <f t="shared" si="0"/>
-        <v>34947</v>
-      </c>
-      <c r="G4" s="14">
-        <f>C4/F4</f>
-        <v>0.50367699659484366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>11530</v>
-      </c>
-      <c r="C5" s="1">
-        <v>23417</v>
-      </c>
-      <c r="D5">
-        <v>2180</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="0"/>
-        <v>34947</v>
-      </c>
-      <c r="G5" s="14">
-        <f>C5/F5</f>
-        <v>0.67007182304632729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15498</v>
-      </c>
-      <c r="C6" s="1">
-        <v>19449</v>
-      </c>
-      <c r="D6">
-        <v>868</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="0"/>
-        <v>34947</v>
-      </c>
-      <c r="G6" s="14">
-        <f>C6/F6</f>
-        <v>0.55652845737831569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9310</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7">
-        <v>11294</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>17468</v>
-      </c>
-      <c r="C10">
-        <v>17479</v>
-      </c>
-      <c r="D10">
-        <v>340</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0.5001573811772112</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>21265</v>
-      </c>
-      <c r="C11">
-        <v>13682</v>
-      </c>
-      <c r="D11">
-        <v>119</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.39150713938249349</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>17345</v>
-      </c>
-      <c r="C12">
-        <v>17602</v>
-      </c>
-      <c r="D12">
-        <v>371</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.50367699659484366</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>11530</v>
-      </c>
-      <c r="C13">
-        <v>23417</v>
-      </c>
-      <c r="D13">
-        <v>2180</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.67007182304632729</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>15498</v>
-      </c>
-      <c r="C14">
-        <v>19449</v>
-      </c>
-      <c r="D14">
-        <v>868</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.55652845737831569</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="56"/>
-      <c r="F15" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8E679CEB-3FA1-214F-8662-1DB7F7D4329E}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{4282F596-5CE3-A147-B53A-ACFC0F0CBC15}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{06DB0BE7-7DD7-4447-802E-604F31833213}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{A5ECA048-9637-3347-A642-B69735BCE259}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{3210E477-3250-0A42-AF90-C60B4E8C5ADE}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{9C1B3C63-6FFD-2940-9A9B-9963DE6D8DA3}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{040E48FA-892D-4F4C-9887-58A2BFA8C42D}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{507B9522-B75F-0343-B8BE-556427F6C4D4}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{FDEB9996-C2A9-F549-A7CD-D02A1BBE6DD7}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{716E27A2-1DED-434F-8213-F28BFB0F0AC7}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{8C134E6F-9C9B-4842-992E-B47F9AC1685A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="F2" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -11989,575 +12826,532 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
+    <row r="1" spans="1:7">
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="G1" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17468</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17479</v>
+      </c>
+      <c r="D2">
+        <v>340</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="15">
+        <f>SUM(B2:C2)</f>
+        <v>34947</v>
+      </c>
+      <c r="G2" s="14">
+        <f>C2/F2</f>
+        <v>0.5001573811772112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21265</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13682</v>
+      </c>
+      <c r="D3">
+        <v>119</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F6" si="0">SUM(B3:C3)</f>
+        <v>34947</v>
+      </c>
+      <c r="G3" s="14">
+        <f>C3/F3</f>
+        <v>0.39150713938249349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17345</v>
+      </c>
+      <c r="C4" s="1">
+        <v>17602</v>
+      </c>
+      <c r="D4">
+        <v>371</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>34947</v>
+      </c>
+      <c r="G4" s="14">
+        <f>C4/F4</f>
+        <v>0.50367699659484366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11530</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23417</v>
+      </c>
+      <c r="D5">
+        <v>2180</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>34947</v>
+      </c>
+      <c r="G5" s="14">
+        <f>C5/F5</f>
+        <v>0.67007182304632729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15498</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19449</v>
+      </c>
+      <c r="D6">
+        <v>868</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>34947</v>
+      </c>
+      <c r="G6" s="14">
+        <f>C6/F6</f>
+        <v>0.55652845737831569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9310</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7">
+        <v>11294</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>17468</v>
+      </c>
+      <c r="C10">
+        <v>17479</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.5001573811772112</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>21265</v>
+      </c>
+      <c r="C11">
+        <v>13682</v>
+      </c>
+      <c r="D11">
+        <v>119</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.39150713938249349</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>17345</v>
+      </c>
+      <c r="C12">
+        <v>17602</v>
+      </c>
+      <c r="D12">
+        <v>371</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.50367699659484366</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>11530</v>
+      </c>
+      <c r="C13">
+        <v>23417</v>
+      </c>
+      <c r="D13">
+        <v>2180</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.67007182304632729</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>15498</v>
+      </c>
+      <c r="C14">
+        <v>19449</v>
+      </c>
+      <c r="D14">
+        <v>868</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.55652845737831569</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="56"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <f>16021/34947</f>
+        <v>0.45843706183649524</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8E679CEB-3FA1-214F-8662-1DB7F7D4329E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4282F596-5CE3-A147-B53A-ACFC0F0CBC15}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{06DB0BE7-7DD7-4447-802E-604F31833213}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{A5ECA048-9637-3347-A642-B69735BCE259}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{3210E477-3250-0A42-AF90-C60B4E8C5ADE}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{9C1B3C63-6FFD-2940-9A9B-9963DE6D8DA3}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{040E48FA-892D-4F4C-9887-58A2BFA8C42D}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{507B9522-B75F-0343-B8BE-556427F6C4D4}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{FDEB9996-C2A9-F549-A7CD-D02A1BBE6DD7}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{716E27A2-1DED-434F-8213-F28BFB0F0AC7}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{8C134E6F-9C9B-4842-992E-B47F9AC1685A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BDE0C-572B-464B-9775-865EEF875FC1}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59">
+        <v>7</v>
+      </c>
+      <c r="C2" s="59">
+        <v>511</v>
+      </c>
+      <c r="D2" s="60">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59">
+        <v>14</v>
+      </c>
+      <c r="C3" s="59">
+        <v>222</v>
+      </c>
+      <c r="D3" s="60">
+        <v>6.3063063063063057E-2</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59">
+        <v>13</v>
+      </c>
+      <c r="C4" s="59">
+        <v>312</v>
+      </c>
+      <c r="D4" s="60">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59">
+        <v>5</v>
+      </c>
+      <c r="C5" s="59">
+        <v>197</v>
+      </c>
+      <c r="D5" s="60">
+        <v>2.5380710659898477E-2</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59">
+        <v>8</v>
+      </c>
+      <c r="C6" s="59">
+        <v>226</v>
+      </c>
+      <c r="D6" s="60">
+        <v>3.5398230088495575E-2</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59">
+        <v>4</v>
+      </c>
+      <c r="C7" s="59">
+        <v>146</v>
+      </c>
+      <c r="D7" s="60">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="58">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59">
+        <v>13</v>
+      </c>
+      <c r="C8" s="59">
+        <v>200</v>
+      </c>
+      <c r="D8" s="60">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59">
+        <v>1</v>
+      </c>
+      <c r="C9" s="59">
+        <v>295</v>
+      </c>
+      <c r="D9" s="60">
+        <v>3.3898305084745762E-3</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59">
+        <v>7</v>
+      </c>
+      <c r="C10" s="59">
+        <v>332</v>
+      </c>
+      <c r="D10" s="60">
+        <v>2.1084337349397589E-2</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59">
+        <v>2</v>
+      </c>
+      <c r="C11" s="59">
         <v>41</v>
       </c>
-      <c r="C2" s="44">
-        <v>5099</v>
-      </c>
-      <c r="D2" s="44">
-        <v>2198</v>
-      </c>
-      <c r="E2" s="44">
-        <v>980</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="44">
-        <v>657</v>
-      </c>
-      <c r="D3" s="44">
-        <v>1235</v>
-      </c>
-      <c r="E3" s="44">
-        <v>210</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="45">
-        <v>6521</v>
-      </c>
-      <c r="D4" s="45">
-        <v>7027</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="45">
-        <v>761</v>
-      </c>
-      <c r="D5" s="45">
-        <v>1390</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="47">
-        <v>34947</v>
-      </c>
-      <c r="D6" s="47">
-        <v>17611</v>
-      </c>
-      <c r="E6" s="46">
-        <v>1029</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="H7" s="48"/>
-      <c r="J7" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8">
-        <v>761</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9">
-        <v>8736</v>
-      </c>
-      <c r="D9">
-        <v>271</v>
-      </c>
-      <c r="E9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9">
-        <v>6521</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10">
-        <v>874</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I10">
-        <v>657</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11">
-        <v>2263</v>
-      </c>
-      <c r="D11">
-        <v>994</v>
-      </c>
-      <c r="E11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11">
-        <v>5099</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12">
-        <v>3268</v>
-      </c>
-      <c r="D12">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13">
-        <v>1629</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16">
-        <v>5099</v>
-      </c>
-      <c r="D16">
-        <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16">
-        <v>1235</v>
-      </c>
-      <c r="J16">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17">
-        <v>6521</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17">
-        <v>1390</v>
-      </c>
-      <c r="J17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18">
-        <v>657</v>
-      </c>
-      <c r="D18">
-        <v>980</v>
-      </c>
-      <c r="E18" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18">
-        <v>2198</v>
-      </c>
-      <c r="J18">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19">
-        <v>761</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19">
-        <v>7027</v>
-      </c>
-      <c r="J19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="8">
-        <v>34947</v>
-      </c>
-      <c r="D20">
-        <v>1029</v>
-      </c>
-      <c r="E20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20">
-        <v>17611</v>
-      </c>
-      <c r="J20">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23">
-        <v>980</v>
-      </c>
-      <c r="D23">
-        <v>778</v>
-      </c>
-      <c r="E23">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23">
-        <v>778</v>
-      </c>
-      <c r="J23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24">
-        <v>210</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25">
-        <v>202</v>
-      </c>
-      <c r="D25">
-        <v>202</v>
-      </c>
-      <c r="E25">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25">
-        <v>202</v>
-      </c>
-      <c r="J25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="H26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26">
-        <v>41</v>
-      </c>
-      <c r="J26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="H28" t="s">
-        <v>185</v>
+      <c r="D11" s="60">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -12566,7 +13360,166 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD928342-7831-7641-B92C-498582038E8A}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FB9069-9636-FA4A-B89A-564862881889}">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -13296,221 +14249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BDE0C-572B-464B-9775-865EEF875FC1}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="59">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59">
-        <v>7</v>
-      </c>
-      <c r="C2" s="59">
-        <v>511</v>
-      </c>
-      <c r="D2" s="60">
-        <v>1.3698630136986301E-2</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="59">
-        <v>2</v>
-      </c>
-      <c r="B3" s="59">
-        <v>14</v>
-      </c>
-      <c r="C3" s="59">
-        <v>222</v>
-      </c>
-      <c r="D3" s="60">
-        <v>6.3063063063063057E-2</v>
-      </c>
-      <c r="E3" s="61" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="59">
-        <v>3</v>
-      </c>
-      <c r="B4" s="59">
-        <v>13</v>
-      </c>
-      <c r="C4" s="59">
-        <v>312</v>
-      </c>
-      <c r="D4" s="60">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="59">
-        <v>4</v>
-      </c>
-      <c r="B5" s="59">
-        <v>5</v>
-      </c>
-      <c r="C5" s="59">
-        <v>197</v>
-      </c>
-      <c r="D5" s="60">
-        <v>2.5380710659898477E-2</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="59">
-        <v>5</v>
-      </c>
-      <c r="B6" s="59">
-        <v>8</v>
-      </c>
-      <c r="C6" s="59">
-        <v>226</v>
-      </c>
-      <c r="D6" s="60">
-        <v>3.5398230088495575E-2</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="59">
-        <v>6</v>
-      </c>
-      <c r="B7" s="59">
-        <v>4</v>
-      </c>
-      <c r="C7" s="59">
-        <v>146</v>
-      </c>
-      <c r="D7" s="60">
-        <v>2.7397260273972601E-2</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="58">
-        <v>7</v>
-      </c>
-      <c r="B8" s="59">
-        <v>13</v>
-      </c>
-      <c r="C8" s="59">
-        <v>200</v>
-      </c>
-      <c r="D8" s="60">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="59">
-        <v>8</v>
-      </c>
-      <c r="B9" s="59">
-        <v>1</v>
-      </c>
-      <c r="C9" s="59">
-        <v>295</v>
-      </c>
-      <c r="D9" s="60">
-        <v>3.3898305084745762E-3</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="59">
-        <v>9</v>
-      </c>
-      <c r="B10" s="59">
-        <v>7</v>
-      </c>
-      <c r="C10" s="59">
-        <v>332</v>
-      </c>
-      <c r="D10" s="60">
-        <v>2.1084337349397589E-2</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="59">
-        <v>10</v>
-      </c>
-      <c r="B11" s="59">
-        <v>2</v>
-      </c>
-      <c r="C11" s="59">
-        <v>41</v>
-      </c>
-      <c r="D11" s="60">
-        <v>4.878048780487805E-2</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>254</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13860,6 +14604,11 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="12" spans="1:13">
+      <c r="I12" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>11</v>
@@ -13979,7 +14728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E42923-874F-0942-A327-3143864B57A6}">
   <dimension ref="A1:J29"/>
   <sheetViews>
@@ -14780,7 +15529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EDC96-6BDF-C24A-870F-153B20147612}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -14868,12 +15617,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28A7F7E-F303-CD49-8880-EB8DEBC98EE9}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14955,7 +15704,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>15911</v>
       </c>
       <c r="C3">
@@ -14988,7 +15737,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>14715</v>
       </c>
       <c r="C4">
@@ -15021,7 +15770,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>16021</v>
       </c>
       <c r="C5">
@@ -15054,7 +15803,7 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>17277</v>
       </c>
       <c r="C6">
@@ -15087,7 +15836,7 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>16632</v>
       </c>
       <c r="C7">
@@ -15216,739 +15965,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1695D830-8BDB-7B49-9C80-06AE5D8A84B1}">
-  <dimension ref="A1:K51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="5">
-        <v>4</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="G14" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15">
-        <f>4/5</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16">
-        <f>5/5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17">
-        <f>4/5</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" t="s">
-        <v>205</v>
-      </c>
-      <c r="J18">
-        <f>3/5</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" t="s">
-        <v>209</v>
-      </c>
-      <c r="J19">
-        <f>2/5</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I20" t="s">
-        <v>210</v>
-      </c>
-      <c r="J20">
-        <f>3/5</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" t="s">
-        <v>204</v>
-      </c>
-      <c r="J21">
-        <f>5/5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22">
-        <f>2/5</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" t="s">
-        <v>204</v>
-      </c>
-      <c r="J23">
-        <f>5/5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J24">
-        <f>3/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="30"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="B31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="B32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="G36" s="30"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="G39" s="30"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="G41" s="30"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="G43" s="30"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="G44" s="30"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="G45" s="30"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="G48" s="30"/>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="30"/>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="30"/>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="30"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G43:G51 G15:G41">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
+++ b/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/transcriptome_genome_annotation/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8119AA5A-FA41-8D42-9BB3-306619C76B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AD37B2-E253-C041-8660-5435CEFAC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="-30520" yWindow="-1000" windowWidth="27640" windowHeight="16440" activeTab="6" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="blast hits" sheetId="4" r:id="rId1"/>
-    <sheet name="single tissue" sheetId="1" r:id="rId2"/>
-    <sheet name="Dheilly genes" sheetId="20" r:id="rId3"/>
-    <sheet name="differnetially expressed specie" sheetId="19" r:id="rId4"/>
-    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId5"/>
-    <sheet name="overlapping" sheetId="3" r:id="rId6"/>
+    <sheet name="overlapping" sheetId="3" r:id="rId1"/>
+    <sheet name="blast hits" sheetId="4" r:id="rId2"/>
+    <sheet name="single tissue" sheetId="1" r:id="rId3"/>
+    <sheet name="Dheilly genes" sheetId="20" r:id="rId4"/>
+    <sheet name="differnetially expressed specie" sheetId="19" r:id="rId5"/>
+    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId6"/>
     <sheet name="Top20 tissue unique" sheetId="17" r:id="rId7"/>
     <sheet name="go terms for discussion" sheetId="18" r:id="rId8"/>
     <sheet name="total genes with hits tissues" sheetId="11" r:id="rId9"/>
@@ -35,7 +35,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'top 20 terms species'!$A$1:$A$101</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'top 20 tissue unique'!$A$1:$A$251</definedName>
   </definedNames>
@@ -1660,578 +1660,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2">
+        <v>1974</v>
+      </c>
+      <c r="J2">
+        <v>65</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2" s="16">
+        <f>J2/I2</f>
+        <v>3.292806484295846E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4">
+        <v>101</v>
+      </c>
+      <c r="G3" s="4">
+        <v>665</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4">
+        <v>665</v>
+      </c>
+      <c r="J3" s="4">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4">
+        <v>54</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L11" si="0">J3/I3</f>
+        <v>6.9172932330827067E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>545</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4">
+        <v>545</v>
+      </c>
+      <c r="J4" s="4">
+        <v>49</v>
+      </c>
+      <c r="K4" s="4">
+        <v>55</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" si="0"/>
+        <v>8.990825688073395E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4">
+        <v>155</v>
+      </c>
+      <c r="J5" s="4">
+        <v>35</v>
+      </c>
+      <c r="K5" s="4">
         <v>41</v>
       </c>
-      <c r="C2" s="44">
-        <v>5099</v>
-      </c>
-      <c r="D2" s="44">
-        <v>2198</v>
-      </c>
-      <c r="E2" s="44">
-        <v>980</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="44">
-        <v>657</v>
-      </c>
-      <c r="D3" s="44">
-        <v>1235</v>
-      </c>
-      <c r="E3" s="44">
-        <v>210</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="45" t="s">
+      <c r="L5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22580645161290322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>124</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4">
+        <v>124</v>
+      </c>
+      <c r="J6" s="4">
+        <v>18</v>
+      </c>
+      <c r="K6" s="4">
+        <v>25</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.14516129032258066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4">
+        <v>79</v>
+      </c>
+      <c r="J7" s="4">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4">
+        <v>28</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.25316455696202533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10010</v>
+      </c>
+      <c r="G8" s="4">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="4">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4">
+        <v>13</v>
+      </c>
+      <c r="K8" s="4">
+        <v>17</v>
+      </c>
+      <c r="L8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1010</v>
+      </c>
+      <c r="G9" s="4">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="4">
+        <v>46</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
+        <v>22</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="0"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>11000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4">
+        <v>43</v>
+      </c>
+      <c r="J10" s="4">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="0"/>
+        <v>0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="I12" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>10000</v>
+      </c>
+      <c r="G13">
+        <v>371</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>371</v>
+      </c>
+      <c r="K13" s="4">
         <v>41</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="45">
-        <v>6521</v>
-      </c>
-      <c r="D4" s="45">
-        <v>7027</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="45">
-        <v>761</v>
-      </c>
-      <c r="D5" s="45">
-        <v>1390</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="47">
-        <v>34947</v>
-      </c>
-      <c r="D6" s="47">
-        <v>17611</v>
-      </c>
-      <c r="E6" s="46">
-        <v>1029</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" s="48"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="H7" s="48"/>
-      <c r="J7" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8">
-        <v>761</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="K8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9">
-        <v>8736</v>
-      </c>
-      <c r="D9">
-        <v>271</v>
-      </c>
-      <c r="E9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9">
-        <v>6521</v>
-      </c>
-      <c r="J9" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10">
-        <v>874</v>
-      </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="I10">
-        <v>657</v>
-      </c>
-      <c r="J10" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11">
-        <v>2263</v>
-      </c>
-      <c r="D11">
-        <v>994</v>
-      </c>
-      <c r="E11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11">
-        <v>5099</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12">
-        <v>3268</v>
-      </c>
-      <c r="D12">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13">
-        <v>1629</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16">
-        <v>5099</v>
-      </c>
-      <c r="D16">
-        <v>210</v>
-      </c>
-      <c r="E16" t="s">
-        <v>221</v>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14">
+        <v>119</v>
+      </c>
+      <c r="J14" s="4">
+        <v>7</v>
+      </c>
+      <c r="K14" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>340</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>340</v>
+      </c>
+      <c r="K15" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>868</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I16">
-        <v>1235</v>
-      </c>
-      <c r="J16">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17">
-        <v>6521</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="K16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="E17" t="s">
-        <v>221</v>
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2180</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="I17">
-        <v>1390</v>
-      </c>
-      <c r="J17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18">
-        <v>657</v>
-      </c>
-      <c r="D18">
-        <v>980</v>
-      </c>
-      <c r="E18" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18">
-        <v>2198</v>
-      </c>
-      <c r="J18">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19">
-        <v>761</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19">
-        <v>7027</v>
-      </c>
-      <c r="J19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="8">
-        <v>34947</v>
-      </c>
-      <c r="D20">
-        <v>1029</v>
-      </c>
-      <c r="E20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20">
-        <v>17611</v>
-      </c>
-      <c r="J20">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23">
-        <v>980</v>
-      </c>
-      <c r="D23">
-        <v>778</v>
-      </c>
-      <c r="E23">
-        <v>68</v>
-      </c>
-      <c r="H23" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23">
-        <v>778</v>
-      </c>
-      <c r="J23">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24">
-        <v>210</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C25">
-        <v>202</v>
-      </c>
-      <c r="D25">
-        <v>202</v>
-      </c>
-      <c r="E25">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25">
-        <v>202</v>
-      </c>
-      <c r="J25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="H26" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26">
-        <v>41</v>
-      </c>
-      <c r="J26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="H28" t="s">
-        <v>185</v>
-      </c>
+        <v>2180</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G12">
+    <sortCondition descending="1" ref="G1:G12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3985,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4040,10 +3941,10 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4066,10 +3967,10 @@
       <c r="G3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4092,10 +3993,10 @@
       <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4118,10 +4019,10 @@
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4144,10 +4045,10 @@
       <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4170,10 +4071,10 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4196,10 +4097,10 @@
       <c r="G8" t="s">
         <v>56</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4222,10 +4123,10 @@
       <c r="G9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4248,10 +4149,10 @@
       <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4274,10 +4175,10 @@
       <c r="G11" t="s">
         <v>55</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9797,7 +9698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20026194-68BA-8C44-8F05-04AF419EA4FD}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -11497,7 +11398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22A8816-EA9A-1545-B9C3-92E9C4A43359}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -12826,11 +12727,589 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="44">
+        <v>5099</v>
+      </c>
+      <c r="D2" s="44">
+        <v>2198</v>
+      </c>
+      <c r="E2" s="44">
+        <v>980</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="44">
+        <v>657</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1235</v>
+      </c>
+      <c r="E3" s="44">
+        <v>210</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="45">
+        <v>6521</v>
+      </c>
+      <c r="D4" s="45">
+        <v>7027</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="45">
+        <v>761</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1390</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="47">
+        <v>34947</v>
+      </c>
+      <c r="D6" s="47">
+        <v>17611</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1029</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="H7" s="48"/>
+      <c r="J7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8">
+        <v>761</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9">
+        <v>8736</v>
+      </c>
+      <c r="D9">
+        <v>271</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9">
+        <v>6521</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10">
+        <v>874</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10">
+        <v>657</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11">
+        <v>2263</v>
+      </c>
+      <c r="D11">
+        <v>994</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11">
+        <v>5099</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>3268</v>
+      </c>
+      <c r="D12">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13">
+        <v>1629</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16">
+        <v>5099</v>
+      </c>
+      <c r="D16">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>1235</v>
+      </c>
+      <c r="J16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17">
+        <v>6521</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>221</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17">
+        <v>1390</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18">
+        <v>657</v>
+      </c>
+      <c r="D18">
+        <v>980</v>
+      </c>
+      <c r="E18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>2198</v>
+      </c>
+      <c r="J18">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19">
+        <v>761</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>7027</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="8">
+        <v>34947</v>
+      </c>
+      <c r="D20">
+        <v>1029</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>17611</v>
+      </c>
+      <c r="J20">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23">
+        <v>980</v>
+      </c>
+      <c r="D23">
+        <v>778</v>
+      </c>
+      <c r="E23">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23">
+        <v>778</v>
+      </c>
+      <c r="J23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24">
+        <v>210</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25">
+        <v>202</v>
+      </c>
+      <c r="D25">
+        <v>202</v>
+      </c>
+      <c r="E25">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I25">
+        <v>202</v>
+      </c>
+      <c r="J25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26">
+        <v>41</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13151,12 +13630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BDE0C-572B-464B-9775-865EEF875FC1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13360,7 +13839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD928342-7831-7641-B92C-498582038E8A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -13519,11 +13998,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FB9069-9636-FA4A-B89A-564862881889}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -14249,491 +14728,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497FF3B9-83D1-4847-A17F-7F4FA7D8EA43}">
-  <dimension ref="A1:M19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2">
-        <v>1974</v>
-      </c>
-      <c r="J2">
-        <v>65</v>
-      </c>
-      <c r="K2">
-        <v>60</v>
-      </c>
-      <c r="L2" s="16">
-        <f>J2/I2</f>
-        <v>3.292806484295846E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4">
-        <v>101</v>
-      </c>
-      <c r="G3" s="4">
-        <v>665</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4">
-        <v>665</v>
-      </c>
-      <c r="J3" s="4">
-        <v>46</v>
-      </c>
-      <c r="K3" s="4">
-        <v>54</v>
-      </c>
-      <c r="L3" s="16">
-        <f t="shared" ref="L3:L11" si="0">J3/I3</f>
-        <v>6.9172932330827067E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4">
-        <v>10001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>545</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="4">
-        <v>545</v>
-      </c>
-      <c r="J4" s="4">
-        <v>49</v>
-      </c>
-      <c r="K4" s="4">
-        <v>55</v>
-      </c>
-      <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>8.990825688073395E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1001</v>
-      </c>
-      <c r="G5" s="4">
-        <v>155</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4">
-        <v>155</v>
-      </c>
-      <c r="J5" s="4">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4">
-        <v>41</v>
-      </c>
-      <c r="L5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.22580645161290322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
-        <v>10100</v>
-      </c>
-      <c r="G6" s="4">
-        <v>124</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4">
-        <v>124</v>
-      </c>
-      <c r="J6" s="4">
-        <v>18</v>
-      </c>
-      <c r="K6" s="4">
-        <v>25</v>
-      </c>
-      <c r="L6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.14516129032258066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>110</v>
-      </c>
-      <c r="G7" s="4">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4">
-        <v>79</v>
-      </c>
-      <c r="J7" s="4">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4">
-        <v>28</v>
-      </c>
-      <c r="L7" s="16">
-        <f t="shared" si="0"/>
-        <v>0.25316455696202533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10010</v>
-      </c>
-      <c r="G8" s="4">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4">
-        <v>60</v>
-      </c>
-      <c r="J8" s="4">
-        <v>13</v>
-      </c>
-      <c r="K8" s="4">
-        <v>17</v>
-      </c>
-      <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1010</v>
-      </c>
-      <c r="G9" s="4">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="4">
-        <v>46</v>
-      </c>
-      <c r="J9" s="4">
-        <v>4</v>
-      </c>
-      <c r="K9" s="4">
-        <v>22</v>
-      </c>
-      <c r="L9" s="16">
-        <f t="shared" si="0"/>
-        <v>8.6956521739130432E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4">
-        <v>11000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>43</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4">
-        <v>43</v>
-      </c>
-      <c r="J10" s="4">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4">
-        <v>17</v>
-      </c>
-      <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.2558139534883721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1100</v>
-      </c>
-      <c r="G11" s="4">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="4">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>6</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="I12" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>10000</v>
-      </c>
-      <c r="G13">
-        <v>371</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13">
-        <v>371</v>
-      </c>
-      <c r="K13" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
-      </c>
-      <c r="G14">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14">
-        <v>119</v>
-      </c>
-      <c r="J14" s="4">
-        <v>7</v>
-      </c>
-      <c r="K14" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>340</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15">
-        <v>340</v>
-      </c>
-      <c r="K15" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
-        <v>868</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16">
-        <v>868</v>
-      </c>
-      <c r="K16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2180</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17">
-        <v>2180</v>
-      </c>
-      <c r="K17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G12">
-    <sortCondition descending="1" ref="G1:G12"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E42923-874F-0942-A327-3143864B57A6}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
+++ b/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/transcriptome_genome_annotation/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AD37B2-E253-C041-8660-5435CEFAC116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF0D4F-97E3-FB4E-942F-21F612FD2425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30520" yWindow="-1000" windowWidth="27640" windowHeight="16440" activeTab="6" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="-30520" yWindow="-1000" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="overlapping" sheetId="3" r:id="rId1"/>
-    <sheet name="blast hits" sheetId="4" r:id="rId2"/>
-    <sheet name="single tissue" sheetId="1" r:id="rId3"/>
-    <sheet name="Dheilly genes" sheetId="20" r:id="rId4"/>
-    <sheet name="differnetially expressed specie" sheetId="19" r:id="rId5"/>
-    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId6"/>
-    <sheet name="Top20 tissue unique" sheetId="17" r:id="rId7"/>
-    <sheet name="go terms for discussion" sheetId="18" r:id="rId8"/>
-    <sheet name="total genes with hits tissues" sheetId="11" r:id="rId9"/>
-    <sheet name="Over-Under tissuetissue" sheetId="14" r:id="rId10"/>
-    <sheet name="% found in tissue" sheetId="16" r:id="rId11"/>
-    <sheet name="unique genes goslims tissue" sheetId="15" r:id="rId12"/>
-    <sheet name="top 20 terms species" sheetId="6" r:id="rId13"/>
+    <sheet name="top 20 terms species" sheetId="6" r:id="rId2"/>
+    <sheet name="blast hits" sheetId="4" r:id="rId3"/>
+    <sheet name="single tissue" sheetId="1" r:id="rId4"/>
+    <sheet name="Dheilly genes" sheetId="20" r:id="rId5"/>
+    <sheet name="differnetially expressed specie" sheetId="19" r:id="rId6"/>
+    <sheet name="GOterms transcriptome  normal" sheetId="12" r:id="rId7"/>
+    <sheet name="Top20 tissue unique" sheetId="17" r:id="rId8"/>
+    <sheet name="go terms for discussion" sheetId="18" r:id="rId9"/>
+    <sheet name="total genes with hits tissues" sheetId="11" r:id="rId10"/>
+    <sheet name="Over-Under tissuetissue" sheetId="14" r:id="rId11"/>
+    <sheet name="% found in tissue" sheetId="16" r:id="rId12"/>
+    <sheet name="unique genes goslims tissue" sheetId="15" r:id="rId13"/>
     <sheet name="top 20 common species" sheetId="13" r:id="rId14"/>
     <sheet name="top 20 terms tissue gene = 1" sheetId="8" r:id="rId15"/>
     <sheet name="top 20 tissue unique" sheetId="10" r:id="rId16"/>
@@ -34,9 +34,9 @@
     <sheet name="top terms by species not unique" sheetId="5" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'top 20 terms species'!$A$1:$A$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'% found in tissue'!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GOterms transcriptome  normal'!$M$1:$O$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top 20 terms species'!$A$1:$A$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'top 20 tissue unique'!$A$1:$A$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="274">
   <si>
     <t>ctenidia</t>
   </si>
@@ -615,9 +615,6 @@
   </si>
   <si>
     <t>species</t>
-  </si>
-  <si>
-    <t>*not including Pgenerosa or else will return all zeros</t>
   </si>
   <si>
     <t>Goterm</t>
@@ -859,12 +856,63 @@
   <si>
     <t>% present</t>
   </si>
+  <si>
+    <t xml:space="preserve">Species </t>
+  </si>
+  <si>
+    <t>GenBank Accesssion</t>
+  </si>
+  <si>
+    <t>GCA_902825435.1</t>
+  </si>
+  <si>
+    <t>GCF_021730395.1</t>
+  </si>
+  <si>
+    <t>GCA_014843695.1</t>
+  </si>
+  <si>
+    <t>GCA_025267735.1</t>
+  </si>
+  <si>
+    <t>GCA_026571515.1</t>
+  </si>
+  <si>
+    <t>GCA_947247005.1</t>
+  </si>
+  <si>
+    <t>[link](https://www.ncbi.nlm.nih.gov/nuccore/?term=txid129788[organism:exp]%20AND%20biomol_mrna[prop])</t>
+  </si>
+  <si>
+    <t>see link</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>mRNA features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genome size (Mb) </t>
+  </si>
+  <si>
+    <t>% matches</t>
+  </si>
+  <si>
+    <t>Table 1b</t>
+  </si>
+  <si>
+    <t>Table 1a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1080,8 +1128,47 @@
       <color theme="1"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,6 +1184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1292,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1274,6 +1367,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1705,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>157</v>
@@ -2139,6 +2251,356 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28A7F7E-F303-CD49-8880-EB8DEBC98EE9}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="8">
+        <v>17611</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15911</v>
+      </c>
+      <c r="C3">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>29</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>14715</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7">
+        <v>16021</v>
+      </c>
+      <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>17277</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>16632</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="G9" s="5">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1695D830-8BDB-7B49-9C80-06AE5D8A84B1}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -2163,13 +2625,13 @@
         <v>79</v>
       </c>
       <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
         <v>186</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>187</v>
-      </c>
-      <c r="D1" t="s">
-        <v>188</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>0</v>
@@ -2475,7 +2937,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>162</v>
@@ -2491,22 +2953,22 @@
       </c>
       <c r="E14" s="4"/>
       <c r="G14" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="32" t="s">
-        <v>208</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
         <v>162</v>
@@ -2518,7 +2980,7 @@
         <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J15">
         <f>4/5</f>
@@ -2539,7 +3001,7 @@
         <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J16">
         <f>5/5</f>
@@ -2560,7 +3022,7 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J17">
         <f>4/5</f>
@@ -2569,7 +3031,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>162</v>
@@ -2581,7 +3043,7 @@
         <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J18">
         <f>3/5</f>
@@ -2602,7 +3064,7 @@
         <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J19">
         <f>2/5</f>
@@ -2623,7 +3085,7 @@
         <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J20">
         <f>3/5</f>
@@ -2632,7 +3094,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="B21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
         <v>163</v>
@@ -2644,7 +3106,7 @@
         <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J21">
         <f>5/5</f>
@@ -2665,7 +3127,7 @@
         <v>163</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J22">
         <f>2/5</f>
@@ -2686,7 +3148,7 @@
         <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J23">
         <f>5/5</f>
@@ -2707,7 +3169,7 @@
         <v>163</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J24">
         <f>3/3</f>
@@ -2812,7 +3274,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
         <v>163</v>
@@ -2873,7 +3335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F19C8-1440-0241-A8AC-26666238F35A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2892,16 +3354,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>208</v>
       </c>
       <c r="E1" s="36"/>
     </row>
@@ -2916,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" s="42"/>
     </row>
@@ -2931,7 +3393,7 @@
         <v>0.8</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" s="42"/>
     </row>
@@ -2946,7 +3408,7 @@
         <v>0.8</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E4" s="42"/>
     </row>
@@ -2961,7 +3423,7 @@
         <v>0.6</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5" s="42"/>
     </row>
@@ -2976,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E6" s="42"/>
     </row>
@@ -2991,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" s="42"/>
     </row>
@@ -3006,7 +3468,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="42"/>
     </row>
@@ -3021,7 +3483,7 @@
         <v>0.6</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" s="42"/>
     </row>
@@ -3036,7 +3498,7 @@
         <v>0.4</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" s="42"/>
     </row>
@@ -3051,7 +3513,7 @@
         <v>0.4</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="42"/>
     </row>
@@ -3066,7 +3528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4814F0FB-A46A-374B-986D-BEFF2FCA5D72}">
   <dimension ref="A1:F62"/>
   <sheetViews>
@@ -3085,7 +3547,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>102</v>
@@ -3094,10 +3556,10 @@
         <v>103</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -3878,1692 +4340,6 @@
       <c r="F62" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}">
-  <dimension ref="A1:I101"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="38.5" customWidth="1"/>
-    <col min="9" max="9" width="39.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>1128</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3">
-        <v>962</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>785</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5">
-        <v>422</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6">
-        <v>413</v>
-      </c>
-      <c r="F6" s="5">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>382</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8">
-        <v>354</v>
-      </c>
-      <c r="F8" s="5">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>329</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>318</v>
-      </c>
-      <c r="F10" s="5">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>305</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12">
-        <v>294</v>
-      </c>
-      <c r="F12" s="5">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13">
-        <v>278</v>
-      </c>
-      <c r="F13" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14">
-        <v>232</v>
-      </c>
-      <c r="F14" s="5">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>212</v>
-      </c>
-      <c r="F15" s="5">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16">
-        <v>210</v>
-      </c>
-      <c r="F16" s="5">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>206</v>
-      </c>
-      <c r="F17" s="5">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-      <c r="F18" s="5">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19">
-        <v>185</v>
-      </c>
-      <c r="F19" s="5">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>179</v>
-      </c>
-      <c r="F20" s="5">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21">
-        <v>178</v>
-      </c>
-      <c r="F21" s="5">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
-        <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
-        <v>17</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
-        <v>18</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>3</v>
-      </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
-        <v>6</v>
-      </c>
-      <c r="B67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D67">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
-        <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
-        <v>12</v>
-      </c>
-      <c r="B73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C76" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
-        <v>16</v>
-      </c>
-      <c r="B77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
-        <v>17</v>
-      </c>
-      <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>18</v>
-      </c>
-      <c r="B79" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>4</v>
-      </c>
-      <c r="B85" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D85">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>7</v>
-      </c>
-      <c r="B88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
-        <v>8</v>
-      </c>
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D89">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91">
-        <v>10</v>
-      </c>
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
-        <v>12</v>
-      </c>
-      <c r="B93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
-        <v>15</v>
-      </c>
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97">
-        <v>16</v>
-      </c>
-      <c r="B97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>17</v>
-      </c>
-      <c r="B98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>18</v>
-      </c>
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100">
-        <v>19</v>
-      </c>
-      <c r="B100" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>20</v>
-      </c>
-      <c r="B101" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A101" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5782,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F754E3B4-B00D-1F48-9B8B-AB73EC5B3BA7}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5901,14 +4677,14 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>273</v>
       </c>
     </row>
@@ -6132,14 +4908,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:3" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>234</v>
       </c>
     </row>
@@ -6352,14 +5128,14 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:3" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>263</v>
       </c>
     </row>
@@ -6550,14 +5326,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" s="3" customFormat="1">
+      <c r="A70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>306</v>
       </c>
     </row>
@@ -6916,7 +5692,7 @@
   <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9698,8 +8474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20026194-68BA-8C44-8F05-04AF419EA4FD}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12727,19 +11503,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>1128</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>962</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>785</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>422</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>413</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>382</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>354</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>329</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>318</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>305</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>294</v>
+      </c>
+      <c r="F12" s="5">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>278</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>232</v>
+      </c>
+      <c r="F14" s="5">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>212</v>
+      </c>
+      <c r="F15" s="5">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>210</v>
+      </c>
+      <c r="F16" s="5">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>206</v>
+      </c>
+      <c r="F17" s="5">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="F18" s="5">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>185</v>
+      </c>
+      <c r="F19" s="5">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>179</v>
+      </c>
+      <c r="F20" s="5">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>178</v>
+      </c>
+      <c r="F21" s="5">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A61" xr:uid="{B4767766-F7E2-344D-9E33-FADFFD2065BE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12751,7 +12655,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>183</v>
@@ -12767,7 +12671,7 @@
       <c r="B2" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="64">
         <v>5099</v>
       </c>
       <c r="D2" s="44">
@@ -12777,7 +12681,7 @@
         <v>980</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12787,7 +12691,7 @@
       <c r="B3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="64">
         <v>657</v>
       </c>
       <c r="D3" s="44">
@@ -12797,7 +12701,7 @@
         <v>210</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12807,7 +12711,7 @@
       <c r="B4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="64">
         <v>6521</v>
       </c>
       <c r="D4" s="45">
@@ -12817,7 +12721,7 @@
         <v>164</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12827,7 +12731,7 @@
       <c r="B5" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="64">
         <v>761</v>
       </c>
       <c r="D5" s="45">
@@ -12837,7 +12741,7 @@
         <v>164</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12847,7 +12751,7 @@
       <c r="B6" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="65">
         <v>34947</v>
       </c>
       <c r="D6" s="47">
@@ -12857,7 +12761,7 @@
         <v>1029</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" s="48"/>
     </row>
@@ -12874,28 +12778,26 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>218</v>
-      </c>
+      <c r="C8" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I8">
         <v>761</v>
       </c>
       <c r="J8" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
         <v>66</v>
@@ -12903,28 +12805,25 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9">
+        <v>228</v>
+      </c>
+      <c r="C9" s="63">
         <v>8736</v>
       </c>
-      <c r="D9">
-        <v>271</v>
-      </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I9">
         <v>6521</v>
       </c>
       <c r="J9" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
@@ -12932,22 +12831,19 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10">
+        <v>228</v>
+      </c>
+      <c r="C10" s="63">
         <v>874</v>
       </c>
-      <c r="D10">
-        <v>24</v>
-      </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I10">
         <v>657</v>
@@ -12956,27 +12852,24 @@
         <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11">
+        <v>228</v>
+      </c>
+      <c r="C11" s="63">
         <v>2263</v>
       </c>
-      <c r="D11">
-        <v>994</v>
-      </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I11">
         <v>5099</v>
@@ -12985,61 +12878,55 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12">
+        <v>228</v>
+      </c>
+      <c r="C12" s="63">
         <v>3268</v>
       </c>
-      <c r="D12">
-        <v>61</v>
-      </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13">
+        <v>228</v>
+      </c>
+      <c r="C13" s="63">
         <v>1629</v>
       </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>167</v>
@@ -13050,10 +12937,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16">
         <v>5099</v>
@@ -13062,7 +12949,7 @@
         <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
         <v>66</v>
@@ -13076,10 +12963,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17">
         <v>6521</v>
@@ -13088,7 +12975,7 @@
         <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
         <v>73</v>
@@ -13102,10 +12989,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18">
         <v>657</v>
@@ -13114,7 +13001,7 @@
         <v>980</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H18" t="s">
         <v>41</v>
@@ -13128,10 +13015,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19">
         <v>761</v>
@@ -13140,7 +13027,7 @@
         <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
         <v>74</v>
@@ -13154,10 +13041,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" t="s">
         <v>229</v>
-      </c>
-      <c r="B20" t="s">
-        <v>230</v>
       </c>
       <c r="C20" s="8">
         <v>34947</v>
@@ -13166,7 +13053,7 @@
         <v>1029</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
         <v>40</v>
@@ -13180,19 +13067,19 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>184</v>
@@ -13206,10 +13093,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23">
         <v>980</v>
@@ -13232,10 +13119,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C24">
         <v>210</v>
@@ -13258,10 +13145,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25">
         <v>202</v>
@@ -13293,23 +13180,219 @@
         <v>32</v>
       </c>
     </row>
+    <row r="27" spans="1:10" ht="19">
+      <c r="A27" s="79" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="28" spans="1:10">
-      <c r="H28" t="s">
-        <v>185</v>
+      <c r="A28" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="66">
+        <v>34947</v>
+      </c>
+      <c r="C30" s="66">
+        <v>34947</v>
+      </c>
+      <c r="D30" s="74">
+        <f>B30/C30</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="66">
+        <v>5099</v>
+      </c>
+      <c r="C31" s="66">
+        <v>71786</v>
+      </c>
+      <c r="D31" s="74">
+        <f t="shared" ref="D31:D32" si="0">B31/C31</f>
+        <v>7.1030563062435575E-2</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="69">
+        <v>657</v>
+      </c>
+      <c r="C32" s="73">
+        <v>35959</v>
+      </c>
+      <c r="D32" s="75">
+        <f t="shared" si="0"/>
+        <v>1.8270808420701355E-2</v>
+      </c>
+      <c r="E32" s="70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19">
+      <c r="A33" s="80" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="66">
+        <v>8736</v>
+      </c>
+      <c r="C35" s="66">
+        <v>1900</v>
+      </c>
+      <c r="D35" s="77">
+        <f>B35/34947</f>
+        <v>0.2499785389303803</v>
+      </c>
+      <c r="E35" s="78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="61">
+        <v>874</v>
+      </c>
+      <c r="C36" s="66">
+        <v>979</v>
+      </c>
+      <c r="D36" s="77">
+        <f t="shared" ref="D36:D39" si="1">B36/34947</f>
+        <v>2.5009299796835208E-2</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="66">
+        <v>2263</v>
+      </c>
+      <c r="C37" s="66">
+        <v>1400</v>
+      </c>
+      <c r="D37" s="77">
+        <f t="shared" si="1"/>
+        <v>6.4755200732537849E-2</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" s="66">
+        <v>3268</v>
+      </c>
+      <c r="C38" s="66">
+        <v>1500</v>
+      </c>
+      <c r="D38" s="77">
+        <f t="shared" si="1"/>
+        <v>9.351303402294904E-2</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="66">
+        <v>1629</v>
+      </c>
+      <c r="C39" s="66">
+        <v>932</v>
+      </c>
+      <c r="D39" s="77">
+        <f t="shared" si="1"/>
+        <v>4.6613443214009787E-2</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E32" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/?term=txid129788[organism:exp]%20AND%20biomol_mrna[prop]" xr:uid="{80F8D422-5A36-EA40-B5EE-664D864931F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13492,7 +13575,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>36</v>
@@ -13630,12 +13713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BDE0C-572B-464B-9775-865EEF875FC1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13648,19 +13731,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>244</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13677,7 +13760,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13694,7 +13777,7 @@
         <v>6.3063063063063057E-2</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13711,7 +13794,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13728,7 +13811,7 @@
         <v>2.5380710659898477E-2</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13745,7 +13828,7 @@
         <v>3.5398230088495575E-2</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13762,7 +13845,7 @@
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13779,7 +13862,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13796,7 +13879,7 @@
         <v>3.3898305084745762E-3</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13813,7 +13896,7 @@
         <v>2.1084337349397589E-2</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13830,7 +13913,7 @@
         <v>4.878048780487805E-2</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -13839,7 +13922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD928342-7831-7641-B92C-498582038E8A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -13854,12 +13937,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>66</v>
@@ -13936,7 +14019,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>163</v>
@@ -13998,7 +14081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FB9069-9636-FA4A-B89A-564862881889}">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -14056,7 +14139,7 @@
         <v>41</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>66</v>
@@ -14340,13 +14423,13 @@
         <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L8" s="35" t="s">
         <v>95</v>
       </c>
       <c r="M8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N8" t="s">
         <v>163</v>
@@ -14513,7 +14596,7 @@
         <v>162</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" t="s">
         <v>163</v>
@@ -14605,7 +14688,7 @@
         <v>163</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14728,12 +14811,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E42923-874F-0942-A327-3143864B57A6}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15529,7 +15612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8EDC96-6BDF-C24A-870F-153B20147612}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -15615,354 +15698,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28A7F7E-F303-CD49-8880-EB8DEBC98EE9}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" customWidth="1"/>
-    <col min="11" max="11" width="29" customWidth="1"/>
-    <col min="12" max="12" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="8">
-        <v>17611</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>15911</v>
-      </c>
-      <c r="C3">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>29</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>14715</v>
-      </c>
-      <c r="C4">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="5">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>16021</v>
-      </c>
-      <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>17277</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>31</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7">
-        <v>16632</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="F8" s="3"/>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="G9" s="5">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="G10" s="5">
-        <v>4</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4"/>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
+++ b/transcriptome_genome_annotation/plots/geoduck_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/code-for-Pgenerosa/transcriptome_genome_annotation/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF0D4F-97E3-FB4E-942F-21F612FD2425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237A6B57-5325-3C4E-B94A-863739834A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30520" yWindow="-1000" windowWidth="27640" windowHeight="16440" activeTab="2" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
+    <workbookView xWindow="-30520" yWindow="-1000" windowWidth="27640" windowHeight="16440" activeTab="4" xr2:uid="{4342BFFC-51E7-954C-9082-9528990B46CD}"/>
   </bookViews>
   <sheets>
     <sheet name="overlapping" sheetId="3" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="279">
   <si>
     <t>ctenidia</t>
   </si>
@@ -904,6 +904,21 @@
   <si>
     <t>Table 1a</t>
   </si>
+  <si>
+    <t>#heart = 16,021</t>
+  </si>
+  <si>
+    <t>#ctenidia = 15,911</t>
+  </si>
+  <si>
+    <t>#gonad = 14,715</t>
+  </si>
+  <si>
+    <t>#juv = 17,277</t>
+  </si>
+  <si>
+    <t>#larvae = 16,632</t>
+  </si>
 </sst>
 </file>
 
@@ -912,7 +927,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1167,6 +1182,13 @@
       <color theme="1"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1373,7 +1395,6 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1381,11 +1402,14 @@
     <xf numFmtId="3" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -12632,7 +12656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B8103-F7E6-ED47-8F23-029A359B5999}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27:E39"/>
     </sheetView>
   </sheetViews>
@@ -13181,19 +13205,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="19">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="77" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="68" t="s">
+      <c r="A28" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="57" t="s">
@@ -13213,7 +13232,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="70" t="s">
         <v>228</v>
       </c>
       <c r="B30" s="66">
@@ -13222,7 +13241,7 @@
       <c r="C30" s="66">
         <v>34947</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="73">
         <f>B30/C30</f>
         <v>1</v>
       </c>
@@ -13231,7 +13250,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="66">
@@ -13240,7 +13259,7 @@
       <c r="C31" s="66">
         <v>71786</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="73">
         <f t="shared" ref="D31:D32" si="0">B31/C31</f>
         <v>7.1030563062435575E-2</v>
       </c>
@@ -13249,30 +13268,30 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="68">
         <v>657</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <v>35959</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="74">
         <f t="shared" si="0"/>
         <v>1.8270808420701355E-2</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="69" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="78" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="57" t="s">
         <v>268</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -13289,7 +13308,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="70" t="s">
         <v>222</v>
       </c>
       <c r="B35" s="66">
@@ -13298,16 +13317,16 @@
       <c r="C35" s="66">
         <v>1900</v>
       </c>
-      <c r="D35" s="77">
+      <c r="D35" s="75">
         <f>B35/34947</f>
         <v>0.2499785389303803</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="76" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="71" t="s">
+      <c r="A36" s="70" t="s">
         <v>223</v>
       </c>
       <c r="B36" s="61">
@@ -13316,16 +13335,16 @@
       <c r="C36" s="66">
         <v>979</v>
       </c>
-      <c r="D36" s="77">
+      <c r="D36" s="75">
         <f t="shared" ref="D36:D39" si="1">B36/34947</f>
         <v>2.5009299796835208E-2</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="76" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>224</v>
       </c>
       <c r="B37" s="66">
@@ -13334,16 +13353,16 @@
       <c r="C37" s="66">
         <v>1400</v>
       </c>
-      <c r="D37" s="77">
+      <c r="D37" s="75">
         <f t="shared" si="1"/>
         <v>6.4755200732537849E-2</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="76" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="70" t="s">
         <v>225</v>
       </c>
       <c r="B38" s="66">
@@ -13352,7 +13371,7 @@
       <c r="C38" s="66">
         <v>1500</v>
       </c>
-      <c r="D38" s="77">
+      <c r="D38" s="75">
         <f t="shared" si="1"/>
         <v>9.351303402294904E-2</v>
       </c>
@@ -13361,7 +13380,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="70" t="s">
         <v>226</v>
       </c>
       <c r="B39" s="66">
@@ -13370,11 +13389,11 @@
       <c r="C39" s="66">
         <v>932</v>
       </c>
-      <c r="D39" s="77">
+      <c r="D39" s="75">
         <f t="shared" si="1"/>
         <v>4.6613443214009787E-2</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="76" t="s">
         <v>265</v>
       </c>
     </row>
@@ -13389,10 +13408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FBD0D9-15F7-B440-A087-0EA0AA5080F3}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13402,7 +13421,7 @@
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
@@ -13422,7 +13441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" ht="26">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -13446,8 +13465,12 @@
         <f>C2/F2</f>
         <v>0.5001573811772112</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:10" ht="26">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -13471,8 +13494,12 @@
         <f>C3/F3</f>
         <v>0.39150713938249349</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" ht="26">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -13496,8 +13523,12 @@
         <f>C4/F4</f>
         <v>0.50367699659484366</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10" ht="26">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -13521,8 +13552,12 @@
         <f>C5/F5</f>
         <v>0.67007182304632729</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="79" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" s="80"/>
+    </row>
+    <row r="6" spans="1:10" ht="26">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -13546,8 +13581,12 @@
         <f>C6/F6</f>
         <v>0.55652845737831569</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:10" ht="26">
       <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
@@ -13563,8 +13602,14 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+    </row>
+    <row r="8" spans="1:10" ht="26">
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -13581,7 +13626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:10">
       <c r="A10" s="56" t="s">
         <v>5</v>
       </c>
@@ -13601,7 +13646,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:10">
       <c r="A11" s="56" t="s">
         <v>1</v>
       </c>
@@ -13621,7 +13666,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12" s="56" t="s">
         <v>2</v>
       </c>
@@ -13641,7 +13686,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:10">
       <c r="A13" s="56" t="s">
         <v>3</v>
       </c>
@@ -13661,7 +13706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" s="56" t="s">
         <v>4</v>
       </c>
@@ -13681,7 +13726,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10">
       <c r="A15" s="56"/>
       <c r="F15" s="13"/>
     </row>
@@ -13717,8 +13762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BDE0C-572B-464B-9775-865EEF875FC1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15592,14 +15637,14 @@
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="uniqueValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:I21">
-    <cfRule type="uniqueValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="uniqueValues" dxfId="4" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="uniqueValues" dxfId="3" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:I21">
+    <cfRule type="uniqueValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
     <cfRule type="uniqueValues" dxfId="2" priority="2"/>
